--- a/test_data_and_outputs_4.xlsx
+++ b/test_data_and_outputs_4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,46 +512,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>217.0000005085021</v>
+        <v>153.0000068843363</v>
       </c>
       <c r="B2" t="n">
-        <v>88.99999907612798</v>
+        <v>69.00000029057263</v>
       </c>
       <c r="C2" t="n">
-        <v>128</v>
+        <v>83.9999984353781</v>
       </c>
       <c r="D2" t="n">
-        <v>11.84430113352296</v>
+        <v>5.249299868682042</v>
       </c>
       <c r="E2" t="n">
-        <v>10.99999970942737</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>14.50000120326876</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.500000111758707</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H2" t="n">
-        <v>23.12623668737547</v>
+        <v>19.21054882618496</v>
       </c>
       <c r="I2" t="n">
-        <v>25.86040459868144</v>
+        <v>30.11607742263743</v>
       </c>
       <c r="J2" t="n">
-        <v>100.1807955882319</v>
+        <v>115.4334152842633</v>
       </c>
       <c r="K2" t="n">
-        <v>3.926267535826209</v>
+        <v>3.89542473468818</v>
       </c>
       <c r="L2" t="n">
-        <v>71.86392546966584</v>
+        <v>59.96578395954033</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.309084892272949</v>
+        <v>-1.082624077796936</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.458761930465698</v>
+        <v>-1.156940460205078</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -559,46 +559,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>212.9999915007503</v>
+        <v>159.0000009834766</v>
       </c>
       <c r="B3" t="n">
-        <v>83.99999630451191</v>
+        <v>74.99999815970666</v>
       </c>
       <c r="C3" t="n">
-        <v>128.9999961555005</v>
+        <v>83.9999984353781</v>
       </c>
       <c r="D3" t="n">
-        <v>8.535900565212135</v>
+        <v>6.965300046373784</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.499999787658455</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G3" t="n">
-        <v>4.500000111758707</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H3" t="n">
-        <v>22.39767280301064</v>
+        <v>20.15719816057268</v>
       </c>
       <c r="I3" t="n">
-        <v>28.75111100453044</v>
+        <v>28.41785862069236</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2071020960983</v>
+        <v>109.2396314482934</v>
       </c>
       <c r="K3" t="n">
-        <v>3.924882555801852</v>
+        <v>3.899371198884367</v>
       </c>
       <c r="L3" t="n">
-        <v>69.58221489244981</v>
+        <v>62.94334119558611</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.505458831787109</v>
+        <v>-1.25443172454834</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.196668863296509</v>
+        <v>-1.204234719276428</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -606,46 +606,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>218.9999957140536</v>
+        <v>159.0000009834766</v>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>73.00000300258387</v>
       </c>
       <c r="C4" t="n">
-        <v>130.999999910593</v>
+        <v>86.00000078231095</v>
       </c>
       <c r="D4" t="n">
-        <v>8.138300235015839</v>
+        <v>5.66029992767758</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.500000212341545</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G4" t="n">
-        <v>4.500000111758707</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H4" t="n">
-        <v>23.03113577368564</v>
+        <v>19.88662065483784</v>
       </c>
       <c r="I4" t="n">
-        <v>30.84720598120154</v>
+        <v>30.68337734309793</v>
       </c>
       <c r="J4" t="n">
-        <v>119.4782242910731</v>
+        <v>117.8598511188603</v>
       </c>
       <c r="K4" t="n">
-        <v>3.926940820365671</v>
+        <v>3.899371198884367</v>
       </c>
       <c r="L4" t="n">
-        <v>71.54385396965156</v>
+        <v>62.07511599727172</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.166581630706787</v>
+        <v>-1.307320713996887</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.547642707824707</v>
+        <v>-1.366726160049438</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -653,46 +653,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>223.0000047218054</v>
+        <v>175.0000009834766</v>
       </c>
       <c r="B5" t="n">
-        <v>86.00000184774404</v>
+        <v>79.0000008717179</v>
       </c>
       <c r="C5" t="n">
-        <v>136.9999997317791</v>
+        <v>96.00000250339504</v>
       </c>
       <c r="D5" t="n">
-        <v>5.284299979683868</v>
+        <v>6.585299831702103</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.500000212341545</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G5" t="n">
-        <v>4.500000111758707</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H5" t="n">
-        <v>22.83670109362968</v>
+        <v>21.02099254631191</v>
       </c>
       <c r="I5" t="n">
-        <v>37.41146308321357</v>
+        <v>30.78501202514799</v>
       </c>
       <c r="J5" t="n">
-        <v>144.8488863105295</v>
+        <v>118.642957549551</v>
       </c>
       <c r="K5" t="n">
-        <v>3.928251164487925</v>
+        <v>3.908571399829109</v>
       </c>
       <c r="L5" t="n">
-        <v>70.89092660035217</v>
+        <v>65.54726862191997</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.8364577293396</v>
+        <v>-1.439017772674561</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.402956485748291</v>
+        <v>-1.33091402053833</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -700,46 +700,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>232.9999993462116</v>
+        <v>176.9999990165234</v>
       </c>
       <c r="B6" t="n">
-        <v>92.00000369548809</v>
+        <v>81.00000222772351</v>
       </c>
       <c r="C6" t="n">
-        <v>140.9999957978727</v>
+        <v>96.00000250339504</v>
       </c>
       <c r="D6" t="n">
-        <v>4.908899784004477</v>
+        <v>7.066299781794855</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.500000070780515</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G6" t="n">
-        <v>2.500000260770317</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H6" t="n">
-        <v>23.79322116055745</v>
+        <v>21.32576988048286</v>
       </c>
       <c r="I6" t="n">
-        <v>41.52367068251542</v>
+        <v>30.47115809673668</v>
       </c>
       <c r="J6" t="n">
-        <v>161.083172275754</v>
+        <v>117.5242480825374</v>
       </c>
       <c r="K6" t="n">
-        <v>3.931330598088868</v>
+        <v>3.909604542508049</v>
       </c>
       <c r="L6" t="n">
-        <v>73.84219104727083</v>
+        <v>66.50203665086605</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.8328518271446228</v>
+        <v>-1.364915132522583</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.305202007293701</v>
+        <v>-1.377369403839111</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -747,46 +747,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>242.9999939706177</v>
+        <v>173.0000029504298</v>
       </c>
       <c r="B7" t="n">
-        <v>99.99999630451191</v>
+        <v>76.99999951571228</v>
       </c>
       <c r="C7" t="n">
-        <v>142.9999995529652</v>
+        <v>96.00000250339504</v>
       </c>
       <c r="D7" t="n">
-        <v>8.695299829707322</v>
+        <v>5.942299542678806</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.499999929219485</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G7" t="n">
-        <v>2.500000260770317</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H7" t="n">
-        <v>24.98049522850343</v>
+        <v>20.71347703532462</v>
       </c>
       <c r="I7" t="n">
-        <v>33.91233956410775</v>
+        <v>31.58736821607734</v>
       </c>
       <c r="J7" t="n">
-        <v>131.837698336573</v>
+        <v>121.6366009463559</v>
       </c>
       <c r="K7" t="n">
-        <v>3.93415645699313</v>
+        <v>3.90751436509698</v>
       </c>
       <c r="L7" t="n">
-        <v>77.51975468523192</v>
+        <v>64.58315198147234</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.379457950592041</v>
+        <v>-1.348305225372314</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.787662744522095</v>
+        <v>-1.081934452056885</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -794,46 +794,46 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>247.0000029783696</v>
+        <v>178.9999970495702</v>
       </c>
       <c r="B8" t="n">
-        <v>98.99999722838393</v>
+        <v>81.99999980628492</v>
       </c>
       <c r="C8" t="n">
-        <v>148.0000032186507</v>
+        <v>96.99999867007139</v>
       </c>
       <c r="D8" t="n">
-        <v>7.443299682322408</v>
+        <v>7.595300319805962</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>3.500000212341545</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.499999888241293</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H8" t="n">
-        <v>24.92300666140207</v>
+        <v>21.49722766728014</v>
       </c>
       <c r="I8" t="n">
-        <v>36.28711343963489</v>
+        <v>29.75372779587635</v>
       </c>
       <c r="J8" t="n">
-        <v>141.0599282116946</v>
+        <v>114.8074340540619</v>
       </c>
       <c r="K8" t="n">
-        <v>3.935222594941981</v>
+        <v>3.910614547619691</v>
       </c>
       <c r="L8" t="n">
-        <v>77.30387541586677</v>
+        <v>67.03016677451818</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.659336447715759</v>
+        <v>-1.649928212165833</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.8190758228302</v>
+        <v>-1.401755094528198</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -841,46 +841,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250.9999933894725</v>
+        <v>182.9999931156637</v>
       </c>
       <c r="B9" t="n">
-        <v>102.000001847744</v>
+        <v>79.0000008717179</v>
       </c>
       <c r="C9" t="n">
-        <v>148.9999993741513</v>
+        <v>104.0000018775463</v>
       </c>
       <c r="D9" t="n">
-        <v>8.755299462371831</v>
+        <v>5.466300032506306</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.500000212341545</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G9" t="n">
-        <v>3.499999888241293</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H9" t="n">
-        <v>25.36563250308912</v>
+        <v>21.17818443189605</v>
       </c>
       <c r="I9" t="n">
-        <v>34.47185514547589</v>
+        <v>33.78939101635467</v>
       </c>
       <c r="J9" t="n">
-        <v>134.1022629726275</v>
+        <v>130.288163305259</v>
       </c>
       <c r="K9" t="n">
-        <v>3.936255006207037</v>
+        <v>3.912568414579937</v>
       </c>
       <c r="L9" t="n">
-        <v>78.6710678455612</v>
+        <v>65.97120053420637</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.634211182594299</v>
+        <v>-1.303136229515076</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.847564220428467</v>
+        <v>-1.199906826019287</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -888,46 +888,46 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>247.0000029783696</v>
+        <v>192.9999990165234</v>
       </c>
       <c r="B10" t="n">
-        <v>96.99999907612798</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C10" t="n">
-        <v>149.9999955296518</v>
+        <v>107.0000003911555</v>
       </c>
       <c r="D10" t="n">
-        <v>5.89029987534256</v>
+        <v>8.040300612433235</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.499999929219485</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.499999962747097</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H10" t="n">
-        <v>24.669972259275</v>
+        <v>22.29335485844553</v>
       </c>
       <c r="I10" t="n">
-        <v>39.96713748676613</v>
+        <v>30.32929668391724</v>
       </c>
       <c r="J10" t="n">
-        <v>155.2993110079254</v>
+        <v>117.2614871401582</v>
       </c>
       <c r="K10" t="n">
-        <v>3.935222594941981</v>
+        <v>3.917098599359819</v>
       </c>
       <c r="L10" t="n">
-        <v>76.50278728568142</v>
+        <v>69.43462685582251</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.213221311569214</v>
+        <v>-1.209150552749634</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.995800018310547</v>
+        <v>-1.343119978904724</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -935,46 +935,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253.0000071916728</v>
+        <v>192.9999990165234</v>
       </c>
       <c r="B11" t="n">
-        <v>103.000000923872</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C11" t="n">
-        <v>149.9999955296518</v>
+        <v>107.9999965578318</v>
       </c>
       <c r="D11" t="n">
-        <v>8.925299623503657</v>
+        <v>7.615300199151076</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.499999929219485</v>
+        <v>6.500000856816756</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.499999888241293</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H11" t="n">
-        <v>25.52341152603728</v>
+        <v>22.16336447771773</v>
       </c>
       <c r="I11" t="n">
-        <v>34.47671015870204</v>
+        <v>30.8017509683326</v>
       </c>
       <c r="J11" t="n">
-        <v>134.1557810849603</v>
+        <v>119.0547751805332</v>
       </c>
       <c r="K11" t="n">
-        <v>3.936759032759306</v>
+        <v>3.917098599359819</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15338792061348</v>
+        <v>69.02008550841761</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.689598441123962</v>
+        <v>-1.995530843734741</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.247394800186157</v>
+        <v>-1.483004331588745</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
@@ -982,46 +982,46 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>269.0000060293823</v>
+        <v>194.9999970495702</v>
       </c>
       <c r="B12" t="n">
-        <v>108.0000036954881</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C12" t="n">
-        <v>160.9999990165234</v>
+        <v>110.999995071441</v>
       </c>
       <c r="D12" t="n">
-        <v>9.345299756465584</v>
+        <v>6.841300042299723</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4.499999787658455</v>
+        <v>6.500000856816756</v>
       </c>
       <c r="G12" t="n">
-        <v>4.500000111758707</v>
+        <v>6.499999687075624</v>
       </c>
       <c r="H12" t="n">
-        <v>26.40405166714898</v>
+        <v>22.07049464736347</v>
       </c>
       <c r="I12" t="n">
-        <v>35.32865861027621</v>
+        <v>32.11514995905247</v>
       </c>
       <c r="J12" t="n">
-        <v>137.6626079078077</v>
+        <v>124.1091733750443</v>
       </c>
       <c r="K12" t="n">
-        <v>3.940520494854768</v>
+        <v>3.917948653462744</v>
       </c>
       <c r="L12" t="n">
-        <v>81.80429926043001</v>
+        <v>68.70488277253281</v>
       </c>
       <c r="M12" t="n">
-        <v>-2.819915533065796</v>
+        <v>-1.588231921195984</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.185315132141113</v>
+        <v>-1.52862811088562</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1029,46 +1029,46 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>271.0000012349337</v>
+        <v>196.9999950826169</v>
       </c>
       <c r="B13" t="n">
-        <v>110.000001847744</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C13" t="n">
-        <v>160.9999990165234</v>
+        <v>112.9999974183739</v>
       </c>
       <c r="D13" t="n">
-        <v>10.87530030521523</v>
+        <v>6.405300290817451</v>
       </c>
       <c r="E13" t="n">
-        <v>4.999999903142456</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-6.500000070780515</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G13" t="n">
-        <v>2.500000260770317</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H13" t="n">
-        <v>26.68033312538105</v>
+        <v>22.10806243328368</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35585551681982</v>
+        <v>33.19017353430995</v>
       </c>
       <c r="J13" t="n">
-        <v>130.0271797088251</v>
+        <v>128.2772509309188</v>
       </c>
       <c r="K13" t="n">
-        <v>3.94095956631232</v>
+        <v>3.91878185738079</v>
       </c>
       <c r="L13" t="n">
-        <v>82.66007145028254</v>
+        <v>68.8058016280315</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.965945959091187</v>
+        <v>-1.647147059440613</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.563001155853271</v>
+        <v>-1.532267093658447</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -1076,46 +1076,46 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>277.000005448237</v>
+        <v>201.0000068843363</v>
       </c>
       <c r="B14" t="n">
-        <v>110.000001847744</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C14" t="n">
-        <v>166.9999988377095</v>
+        <v>115.9999959319831</v>
       </c>
       <c r="D14" t="n">
-        <v>10.82530031084921</v>
+        <v>6.473300131302288</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.499999362975363</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G14" t="n">
-        <v>1.500000037252903</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H14" t="n">
-        <v>26.77788804724402</v>
+        <v>22.31390031182415</v>
       </c>
       <c r="I14" t="n">
-        <v>33.43279494003531</v>
+        <v>33.40842804658675</v>
       </c>
       <c r="J14" t="n">
-        <v>130.3482440062774</v>
+        <v>129.1844634271859</v>
       </c>
       <c r="K14" t="n">
-        <v>3.942238369739545</v>
+        <v>3.920397966157535</v>
       </c>
       <c r="L14" t="n">
-        <v>82.91967674851128</v>
+        <v>69.42444616895172</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.167536020278931</v>
+        <v>-1.568799614906311</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.400755643844604</v>
+        <v>-1.627037763595581</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -1123,234 +1123,234 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>215.0000053029507</v>
+        <v>201.0000068843363</v>
       </c>
       <c r="B15" t="n">
-        <v>87.00000092387202</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C15" t="n">
-        <v>128</v>
+        <v>117.0000021122396</v>
       </c>
       <c r="D15" t="n">
-        <v>9.540599419658234</v>
+        <v>5.904300461379585</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.499999960884453</v>
+        <v>6.500000856816756</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.500000111758707</v>
+        <v>6.499999687075624</v>
       </c>
       <c r="H15" t="n">
-        <v>22.82965547422501</v>
+        <v>22.18225333412246</v>
       </c>
       <c r="I15" t="n">
-        <v>28.1664047261054</v>
+        <v>34.56965642546489</v>
       </c>
       <c r="J15" t="n">
-        <v>109.0468392693069</v>
+        <v>133.6363800549119</v>
       </c>
       <c r="K15" t="n">
-        <v>3.925581447638269</v>
+        <v>3.920397966157535</v>
       </c>
       <c r="L15" t="n">
-        <v>70.93875241805721</v>
+        <v>69.0049613149413</v>
       </c>
       <c r="M15" t="n">
-        <v>-1.356691479682922</v>
+        <v>-1.789380669593811</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.589621782302856</v>
+        <v>-1.576573371887207</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>217.0000005085021</v>
+        <v>205.0000029504298</v>
       </c>
       <c r="B16" t="n">
-        <v>88.99999907612798</v>
+        <v>87.00000009685755</v>
       </c>
       <c r="C16" t="n">
-        <v>128</v>
+        <v>117.9999982789159</v>
       </c>
       <c r="D16" t="n">
-        <v>9.83229990017594</v>
+        <v>7.054300104899239</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.499999960884453</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.500000111758707</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H16" t="n">
-        <v>23.12623668737547</v>
+        <v>22.64915127214697</v>
       </c>
       <c r="I16" t="n">
-        <v>28.38327087539423</v>
+        <v>32.75610675724591</v>
       </c>
       <c r="J16" t="n">
-        <v>109.9541508036964</v>
+        <v>126.7573217203461</v>
       </c>
       <c r="K16" t="n">
-        <v>3.926267535826209</v>
+        <v>3.9219512011101</v>
       </c>
       <c r="L16" t="n">
-        <v>71.86392546966584</v>
+        <v>70.4551568078591</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.289901852607727</v>
+        <v>-1.53442919254303</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.650375604629517</v>
+        <v>-1.527296304702759</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>212.9999915007503</v>
+        <v>203.0000049173831</v>
       </c>
       <c r="B17" t="n">
-        <v>82.99999722838393</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C17" t="n">
-        <v>130.0000037550925</v>
+        <v>119.0000044591724</v>
       </c>
       <c r="D17" t="n">
-        <v>5.98829969686643</v>
+        <v>5.496300164913293</v>
       </c>
       <c r="E17" t="n">
-        <v>4.999999903142456</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.499999960884453</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4999998137354879</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H17" t="n">
-        <v>22.26395302567451</v>
+        <v>22.2188878581111</v>
       </c>
       <c r="I17" t="n">
-        <v>33.91769380463786</v>
+        <v>35.82977321426748</v>
       </c>
       <c r="J17" t="n">
-        <v>131.1524964689477</v>
+        <v>138.5214865565268</v>
       </c>
       <c r="K17" t="n">
-        <v>3.924882555801852</v>
+        <v>3.92118212849272</v>
       </c>
       <c r="L17" t="n">
-        <v>69.15663256056939</v>
+        <v>69.10323011527237</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.153235912322998</v>
+        <v>-1.431911826133728</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.186489582061768</v>
+        <v>-1.691465377807617</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>220.999990919605</v>
+        <v>217.0000068843363</v>
       </c>
       <c r="B18" t="n">
-        <v>87.00000092387202</v>
+        <v>91.00000280886879</v>
       </c>
       <c r="C18" t="n">
-        <v>133.9999998211861</v>
+        <v>125.9999976530672</v>
       </c>
       <c r="D18" t="n">
-        <v>6.457300170231917</v>
+        <v>8.488300354200438</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.499999804422263</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.500000111758707</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H18" t="n">
-        <v>22.93462473956332</v>
+        <v>23.38463697408644</v>
       </c>
       <c r="I18" t="n">
-        <v>34.23684741927691</v>
+        <v>31.23424737021045</v>
       </c>
       <c r="J18" t="n">
-        <v>132.5827954075384</v>
+        <v>121.0596876408097</v>
       </c>
       <c r="K18" t="n">
-        <v>3.927601925824873</v>
+        <v>3.926267363392471</v>
       </c>
       <c r="L18" t="n">
-        <v>71.21953869560548</v>
+        <v>72.68525164981121</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.032353758811951</v>
+        <v>-1.853846311569214</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.03291928768158</v>
+        <v>-1.691944122314453</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>218.9999957140536</v>
+        <v>150.9999975301325</v>
       </c>
       <c r="B19" t="n">
-        <v>83.99999630451191</v>
+        <v>66.99999893456702</v>
       </c>
       <c r="C19" t="n">
-        <v>134.9999959766866</v>
+        <v>83.9999984353781</v>
       </c>
       <c r="D19" t="n">
-        <v>5.916299930649625</v>
+        <v>4.644299925465458</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.500000273808832</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G19" t="n">
-        <v>4.500000111758707</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H19" t="n">
-        <v>22.50161312888144</v>
+        <v>18.88862084679541</v>
       </c>
       <c r="I19" t="n">
-        <v>34.53458091095821</v>
+        <v>31.08956755817653</v>
       </c>
       <c r="J19" t="n">
-        <v>133.6121342847951</v>
+        <v>119.037392132811</v>
       </c>
       <c r="K19" t="n">
-        <v>3.926940820365671</v>
+        <v>3.894039661991212</v>
       </c>
       <c r="L19" t="n">
-        <v>69.86023513870948</v>
+        <v>58.95126947207513</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.153908729553223</v>
+        <v>-1.112020611763</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.470289468765259</v>
+        <v>-1.103780269622803</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -1358,46 +1358,46 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>223.0000047218054</v>
+        <v>155.0000013299286</v>
       </c>
       <c r="B20" t="n">
-        <v>88</v>
+        <v>71.00000164657826</v>
       </c>
       <c r="C20" t="n">
-        <v>134.9999959766866</v>
+        <v>83.9999984353781</v>
       </c>
       <c r="D20" t="n">
-        <v>5.979199890658599</v>
+        <v>7.584300097689047</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>1.499999882653358</v>
+        <v>-12.49999981373549</v>
       </c>
       <c r="G20" t="n">
-        <v>2.500000260770317</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H20" t="n">
-        <v>23.10071749375384</v>
+        <v>19.52920061087542</v>
       </c>
       <c r="I20" t="n">
-        <v>35.98828496578202</v>
+        <v>25.78104954936489</v>
       </c>
       <c r="J20" t="n">
-        <v>139.4140463454031</v>
+        <v>98.91768410938973</v>
       </c>
       <c r="K20" t="n">
-        <v>3.928251164487925</v>
+        <v>3.896774334335003</v>
       </c>
       <c r="L20" t="n">
-        <v>71.72990557010735</v>
+        <v>60.968985225142</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.951040983200073</v>
+        <v>-1.911102652549744</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.666686534881592</v>
+        <v>-1.88263463973999</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -1405,46 +1405,46 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>226.9999951329083</v>
+        <v>161.0000070296228</v>
       </c>
       <c r="B21" t="n">
-        <v>90.99999722838393</v>
+        <v>74.00000058114526</v>
       </c>
       <c r="C21" t="n">
-        <v>136.0000035762786</v>
+        <v>86.9999969489873</v>
       </c>
       <c r="D21" t="n">
-        <v>6.580299695047105</v>
+        <v>5.915299801400688</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.499999804422263</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.499999962747097</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H21" t="n">
-        <v>23.56088762534458</v>
+        <v>20.06412252108461</v>
       </c>
       <c r="I21" t="n">
-        <v>35.47468654565277</v>
+        <v>30.42589411587871</v>
       </c>
       <c r="J21" t="n">
-        <v>137.5519288999111</v>
+        <v>116.9340554076215</v>
       </c>
       <c r="K21" t="n">
-        <v>3.929515290562017</v>
+        <v>3.900621154687927</v>
       </c>
       <c r="L21" t="n">
-        <v>73.15661693059808</v>
+        <v>62.62401917927231</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.143591523170471</v>
+        <v>-1.203086733818054</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.042856216430664</v>
+        <v>-1.226015090942383</v>
       </c>
       <c r="O21" t="n">
         <v>2</v>
@@ -1452,46 +1452,46 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>242.9999939706177</v>
+        <v>166.9999965168536</v>
       </c>
       <c r="B22" t="n">
-        <v>95.00000092387202</v>
+        <v>77.99999709427368</v>
       </c>
       <c r="C22" t="n">
-        <v>148.0000032186507</v>
+        <v>88.99999929592015</v>
       </c>
       <c r="D22" t="n">
-        <v>5.439199824708086</v>
+        <v>7.155300069304047</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.499999804422263</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G22" t="n">
-        <v>2.500000260770317</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H22" t="n">
-        <v>24.34797399903599</v>
+        <v>20.72526462131982</v>
       </c>
       <c r="I22" t="n">
-        <v>40.73390881198956</v>
+        <v>29.15953923365679</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1871661884478</v>
+        <v>112.2781486399935</v>
       </c>
       <c r="K22" t="n">
-        <v>3.93415645699313</v>
+        <v>3.904191735138306</v>
       </c>
       <c r="L22" t="n">
-        <v>75.51632201198464</v>
+        <v>64.68157151262214</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.401496648788452</v>
+        <v>-1.231710433959961</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.464944124221802</v>
+        <v>-1.303101539611816</v>
       </c>
       <c r="O22" t="n">
         <v>2</v>
@@ -1499,46 +1499,46 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250.9999933894725</v>
+        <v>166.9999965168536</v>
       </c>
       <c r="B23" t="n">
-        <v>102.000001847744</v>
+        <v>76.99999951571228</v>
       </c>
       <c r="C23" t="n">
-        <v>148.9999993741513</v>
+        <v>89.9999954625965</v>
       </c>
       <c r="D23" t="n">
-        <v>8.815300245961298</v>
+        <v>6.560300102791968</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4999999608844526</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4999998137354879</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H23" t="n">
-        <v>25.36563250308912</v>
+        <v>20.59197957675389</v>
       </c>
       <c r="I23" t="n">
-        <v>34.35433972018075</v>
+        <v>30.06276057679732</v>
       </c>
       <c r="J23" t="n">
-        <v>133.6451148726545</v>
+        <v>115.7164176946852</v>
       </c>
       <c r="K23" t="n">
-        <v>3.936255006207037</v>
+        <v>3.904191735138306</v>
       </c>
       <c r="L23" t="n">
-        <v>78.6710678455612</v>
+        <v>64.25463035361783</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.848145008087158</v>
+        <v>-1.16536009311676</v>
       </c>
       <c r="N23" t="n">
-        <v>-1.769408941268921</v>
+        <v>-1.233588576316833</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
@@ -1546,46 +1546,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>248.999998183921</v>
+        <v>173.0000022165477</v>
       </c>
       <c r="B24" t="n">
-        <v>98.99999722838393</v>
+        <v>79.99999845027929</v>
       </c>
       <c r="C24" t="n">
-        <v>149.9999955296518</v>
+        <v>93.00000398978584</v>
       </c>
       <c r="D24" t="n">
-        <v>6.895299809323424</v>
+        <v>7.375299756750128</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>3.500000352039927</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.499999888241293</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H24" t="n">
-        <v>24.95652816390906</v>
+        <v>21.11313272229028</v>
       </c>
       <c r="I24" t="n">
-        <v>37.7015003171024</v>
+        <v>29.45778787648089</v>
       </c>
       <c r="J24" t="n">
-        <v>146.5677796904221</v>
+        <v>113.5494571128015</v>
       </c>
       <c r="K24" t="n">
-        <v>3.935742860267929</v>
+        <v>3.907514315824875</v>
       </c>
       <c r="L24" t="n">
-        <v>77.393259906412</v>
+        <v>65.86214898027636</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.827442646026611</v>
+        <v>-0.9406505227088928</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.835382223129272</v>
+        <v>-1.339886903762817</v>
       </c>
       <c r="O24" t="n">
         <v>2</v>
@@ -1593,46 +1593,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>256.9999976027757</v>
+        <v>168.9999984167516</v>
       </c>
       <c r="B25" t="n">
-        <v>104</v>
+        <v>76.00000193715088</v>
       </c>
       <c r="C25" t="n">
-        <v>152.9999954402448</v>
+        <v>93.00000398978584</v>
       </c>
       <c r="D25" t="n">
-        <v>9.156299871521579</v>
+        <v>5.713300030394274</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.500000195577737</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.500000111758707</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H25" t="n">
-        <v>25.71415149124985</v>
+        <v>20.49846049020188</v>
       </c>
       <c r="I25" t="n">
-        <v>34.36951025266489</v>
+        <v>31.7958229629673</v>
       </c>
       <c r="J25" t="n">
-        <v>133.7808237917117</v>
+        <v>122.3620673310079</v>
       </c>
       <c r="K25" t="n">
-        <v>3.937743039987434</v>
+        <v>3.905325448344294</v>
       </c>
       <c r="L25" t="n">
-        <v>79.72321310056833</v>
+        <v>63.93474824455772</v>
       </c>
       <c r="M25" t="n">
-        <v>-2.719633102416992</v>
+        <v>-1.185482144355774</v>
       </c>
       <c r="N25" t="n">
-        <v>-2.38506555557251</v>
+        <v>-1.172274112701416</v>
       </c>
       <c r="O25" t="n">
         <v>2</v>
@@ -1640,46 +1640,46 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>261.0000066105275</v>
+        <v>177.0000060163438</v>
       </c>
       <c r="B26" t="n">
-        <v>105.999998152256</v>
+        <v>79.99999845027929</v>
       </c>
       <c r="C26" t="n">
-        <v>154.9999991953373</v>
+        <v>96.99999867007139</v>
       </c>
       <c r="D26" t="n">
-        <v>9.714300333857413</v>
+        <v>6.735300318071453</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>1.499999882653358</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4999998137354879</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H26" t="n">
-        <v>26.02713345140912</v>
+        <v>21.19371988343162</v>
       </c>
       <c r="I26" t="n">
-        <v>34.00949096254815</v>
+        <v>30.82559786990242</v>
       </c>
       <c r="J26" t="n">
-        <v>132.4444899849708</v>
+        <v>118.8536493952864</v>
       </c>
       <c r="K26" t="n">
-        <v>3.938697380225186</v>
+        <v>3.909604599548414</v>
       </c>
       <c r="L26" t="n">
-        <v>80.6792899209301</v>
+        <v>66.07979325096363</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.292940139770508</v>
+        <v>-1.097126603126526</v>
       </c>
       <c r="N26" t="n">
-        <v>-2.268030405044556</v>
+        <v>-1.38131856918335</v>
       </c>
       <c r="O26" t="n">
         <v>2</v>
@@ -1687,46 +1687,46 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>264.9999970216305</v>
+        <v>179.0000079162419</v>
       </c>
       <c r="B27" t="n">
-        <v>108.0000036954881</v>
+        <v>81.00000222772351</v>
       </c>
       <c r="C27" t="n">
-        <v>157.0000029504298</v>
+        <v>98.00000485032788</v>
       </c>
       <c r="D27" t="n">
-        <v>10.47029969845834</v>
+        <v>6.70529960685182</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.499999882653358</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G27" t="n">
-        <v>1.500000037252903</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H27" t="n">
-        <v>26.33820452398587</v>
+        <v>21.3657432290055</v>
       </c>
       <c r="I27" t="n">
-        <v>33.37676226994667</v>
+        <v>31.28066167327442</v>
       </c>
       <c r="J27" t="n">
-        <v>130.0419918906077</v>
+        <v>120.6619868486065</v>
       </c>
       <c r="K27" t="n">
-        <v>3.939622678040783</v>
+        <v>3.910614569601031</v>
       </c>
       <c r="L27" t="n">
-        <v>81.62898592390833</v>
+        <v>66.60990833759479</v>
       </c>
       <c r="M27" t="n">
-        <v>-1.990578055381775</v>
+        <v>-1.390237092971802</v>
       </c>
       <c r="N27" t="n">
-        <v>-2.272204875946045</v>
+        <v>-1.454166412353516</v>
       </c>
       <c r="O27" t="n">
         <v>2</v>
@@ -1734,422 +1734,422 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>217.0000005085021</v>
+        <v>179.0000079162419</v>
       </c>
       <c r="B28" t="n">
-        <v>86.00000184774404</v>
+        <v>81.00000222772351</v>
       </c>
       <c r="C28" t="n">
-        <v>130.999999910593</v>
+        <v>98.00000485032788</v>
       </c>
       <c r="D28" t="n">
-        <v>7.888299746607986</v>
+        <v>7.375299756750128</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.500000273808832</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G28" t="n">
-        <v>4.500000111758707</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H28" t="n">
-        <v>22.73312700045071</v>
+        <v>21.3657432290055</v>
       </c>
       <c r="I28" t="n">
-        <v>30.62010902629556</v>
+        <v>29.82601116192997</v>
       </c>
       <c r="J28" t="n">
-        <v>118.5243314205583</v>
+        <v>115.0508262570753</v>
       </c>
       <c r="K28" t="n">
-        <v>3.926267535826209</v>
+        <v>3.910614569601031</v>
       </c>
       <c r="L28" t="n">
-        <v>70.61402034477585</v>
+        <v>66.60990833759479</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.11506974697113</v>
+        <v>-1.216981291770935</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.384285569190979</v>
+        <v>-1.436961650848389</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>220.999990919605</v>
+        <v>191.0000031031668</v>
       </c>
       <c r="B29" t="n">
-        <v>89.99999815225596</v>
+        <v>82.99999738484631</v>
       </c>
       <c r="C29" t="n">
-        <v>130.999999910593</v>
+        <v>107.9999965578318</v>
       </c>
       <c r="D29" t="n">
-        <v>8.625300433946647</v>
+        <v>6.447299741441364</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21.86307634268769</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32.68806024865454</v>
+      </c>
+      <c r="J29" t="n">
+        <v>126.2583736163806</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.916230506281505</v>
+      </c>
+      <c r="L29" t="n">
+        <v>68.08130691784476</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1.427303194999695</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1.64196252822876</v>
+      </c>
+      <c r="O29" t="n">
         <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.500000352039927</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.500000111758707</v>
-      </c>
-      <c r="H29" t="n">
-        <v>23.32670050426287</v>
-      </c>
-      <c r="I29" t="n">
-        <v>30.64470273844487</v>
-      </c>
-      <c r="J29" t="n">
-        <v>118.7652179366429</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.927601925824873</v>
-      </c>
-      <c r="L29" t="n">
-        <v>72.46545770417272</v>
-      </c>
-      <c r="M29" t="n">
-        <v>-2.125019788742065</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-1.764674663543701</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>218.9999957140536</v>
+        <v>195.0000069029629</v>
       </c>
       <c r="B30" t="n">
-        <v>86.00000184774404</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C30" t="n">
-        <v>133.0000036656855</v>
+        <v>109.9999989047647</v>
       </c>
       <c r="D30" t="n">
-        <v>6.946400218998083</v>
+        <v>7.102299854662427</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4999995157122684</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4999998658895533</v>
+      </c>
+      <c r="H30" t="n">
+        <v>22.20147896683399</v>
+      </c>
+      <c r="I30" t="n">
+        <v>31.89476693273366</v>
+      </c>
+      <c r="J30" t="n">
+        <v>123.2928669219156</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.91794879035933</v>
+      </c>
+      <c r="L30" t="n">
+        <v>69.12254081368943</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-1.250960469245911</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-1.291323065757751</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.499999804422263</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4.500000111758707</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22.76791412341652</v>
-      </c>
-      <c r="I30" t="n">
-        <v>32.63011261788049</v>
-      </c>
-      <c r="J30" t="n">
-        <v>126.3154762380829</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.926940820365671</v>
-      </c>
-      <c r="L30" t="n">
-        <v>70.70705751225562</v>
-      </c>
-      <c r="M30" t="n">
-        <v>-1.550428509712219</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-1.66596531867981</v>
-      </c>
-      <c r="O30" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>224.9999999273568</v>
+        <v>193.0000050030648</v>
       </c>
       <c r="B31" t="n">
-        <v>92.00000369548809</v>
+        <v>82.99999738484631</v>
       </c>
       <c r="C31" t="n">
-        <v>133.0000036656855</v>
+        <v>109.9999989047647</v>
       </c>
       <c r="D31" t="n">
-        <v>8.015299629441852</v>
+        <v>6.021299592818787</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21.90106516677406</v>
+      </c>
+      <c r="I31" t="n">
+        <v>33.82462285052813</v>
+      </c>
+      <c r="J31" t="n">
+        <v>130.662852692554</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.91709850545484</v>
+      </c>
+      <c r="L31" t="n">
+        <v>68.18344622050664</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1.57375705242157</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-1.72664999961853</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.499999804422263</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.499999888241293</v>
-      </c>
-      <c r="H31" t="n">
-        <v>23.65507420299428</v>
-      </c>
-      <c r="I31" t="n">
-        <v>32.49585349726097</v>
-      </c>
-      <c r="J31" t="n">
-        <v>126.0223223529355</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.928888848638937</v>
-      </c>
-      <c r="L31" t="n">
-        <v>73.47313426986069</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-1.121981739997864</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-1.831562995910645</v>
-      </c>
-      <c r="O31" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>226.9999951329083</v>
+        <v>198.9999944902957</v>
       </c>
       <c r="B32" t="n">
-        <v>92.00000369548809</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C32" t="n">
-        <v>134.9999959766866</v>
+        <v>114.0000035986304</v>
       </c>
       <c r="D32" t="n">
-        <v>7.234300196914697</v>
+        <v>6.778300083018149</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22.27674162321959</v>
+      </c>
+      <c r="I32" t="n">
+        <v>32.64814684243095</v>
+      </c>
+      <c r="J32" t="n">
+        <v>126.2317086661849</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.919598014461518</v>
+      </c>
+      <c r="L32" t="n">
+        <v>69.32470090122784</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-1.536823153495789</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1.429736137390137</v>
+      </c>
+      <c r="O32" t="n">
         <v>2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.499999882653358</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.500000260770317</v>
-      </c>
-      <c r="H32" t="n">
-        <v>23.68999087766061</v>
-      </c>
-      <c r="I32" t="n">
-        <v>34.20499748980509</v>
-      </c>
-      <c r="J32" t="n">
-        <v>132.6611475863323</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.929515290562017</v>
-      </c>
-      <c r="L32" t="n">
-        <v>73.56645940772118</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-1.477098941802979</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-1.890737891197205</v>
-      </c>
-      <c r="O32" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>232.9999993462116</v>
+        <v>211.0000058896839</v>
       </c>
       <c r="B33" t="n">
-        <v>95.00000092387202</v>
+        <v>89.00000145286316</v>
       </c>
       <c r="C33" t="n">
-        <v>137.9999958872796</v>
+        <v>122.0000029727816</v>
       </c>
       <c r="D33" t="n">
-        <v>7.055300147780511</v>
+        <v>7.619299758025859</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.499999804422263</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G33" t="n">
-        <v>2.500000260770317</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H33" t="n">
-        <v>24.17804203002843</v>
+        <v>23.01841570838106</v>
       </c>
       <c r="I33" t="n">
-        <v>35.76562928254095</v>
+        <v>32.24277865295534</v>
       </c>
       <c r="J33" t="n">
-        <v>138.843321924221</v>
+        <v>124.8721662822107</v>
       </c>
       <c r="K33" t="n">
-        <v>3.931330598088868</v>
+        <v>3.924170606379961</v>
       </c>
       <c r="L33" t="n">
-        <v>75.06280655317335</v>
+        <v>71.57520727140759</v>
       </c>
       <c r="M33" t="n">
-        <v>-1.55463707447052</v>
+        <v>-1.581677198410034</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.272324323654175</v>
+        <v>-1.685416460037231</v>
       </c>
       <c r="O33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>231.0000041406601</v>
+        <v>209.0000039897859</v>
       </c>
       <c r="B34" t="n">
-        <v>89.99999815225596</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C34" t="n">
-        <v>140.9999957978727</v>
+        <v>122.999999139458</v>
       </c>
       <c r="D34" t="n">
-        <v>4.21350023838179</v>
+        <v>6.155300388236618</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.499999962747097</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-2.500000044703482</v>
+      </c>
+      <c r="H34" t="n">
+        <v>22.59125064722491</v>
+      </c>
+      <c r="I34" t="n">
+        <v>34.66361144458955</v>
+      </c>
+      <c r="J34" t="n">
+        <v>134.1276893090185</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.923445091542977</v>
+      </c>
+      <c r="L34" t="n">
+        <v>70.23419958980111</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-1.754730820655823</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1.815981864929199</v>
+      </c>
+      <c r="O34" t="n">
         <v>2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2.499999804422263</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.500000037252903</v>
-      </c>
-      <c r="H34" t="n">
-        <v>23.49939042966398</v>
-      </c>
-      <c r="I34" t="n">
-        <v>43.84509380038943</v>
-      </c>
-      <c r="J34" t="n">
-        <v>169.991846426518</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.930735696860819</v>
-      </c>
-      <c r="L34" t="n">
-        <v>72.92691508295785</v>
-      </c>
-      <c r="M34" t="n">
-        <v>-1.01802659034729</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-1.398942708969116</v>
-      </c>
-      <c r="O34" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>240.9999987650663</v>
+        <v>209.0000039897859</v>
       </c>
       <c r="B35" t="n">
-        <v>96</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C35" t="n">
-        <v>145.0000033080577</v>
+        <v>125.0000014863908</v>
       </c>
       <c r="D35" t="n">
-        <v>6.185400019761661</v>
+        <v>4.977100003540151</v>
       </c>
       <c r="E35" t="n">
-        <v>3.000000096857544</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4999999608844526</v>
+        <v>-0.4999995157122684</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.499999888241293</v>
+        <v>-0.4999998658895533</v>
       </c>
       <c r="H35" t="n">
-        <v>24.44209580083544</v>
+        <v>22.32701635119833</v>
       </c>
       <c r="I35" t="n">
-        <v>38.60000241396262</v>
+        <v>37.65226453656908</v>
       </c>
       <c r="J35" t="n">
-        <v>149.9234679232813</v>
+        <v>145.6094045565304</v>
       </c>
       <c r="K35" t="n">
-        <v>3.933609959802009</v>
+        <v>3.923445091542977</v>
       </c>
       <c r="L35" t="n">
-        <v>75.83136918667195</v>
+        <v>69.39303541676976</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.664197206497192</v>
+        <v>-2.134819507598877</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.653225898742676</v>
+        <v>-2.065422534942627</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>247.0000029783696</v>
+        <v>150.9999975301325</v>
       </c>
       <c r="B36" t="n">
-        <v>99.99999630451191</v>
+        <v>64.99999757856139</v>
       </c>
       <c r="C36" t="n">
-        <v>146.9999956190588</v>
+        <v>86.00000078231095</v>
       </c>
       <c r="D36" t="n">
-        <v>8.25529993180607</v>
+        <v>3.496099933056053</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>3.500000352039927</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4999998137354879</v>
+        <v>2.500000044703482</v>
       </c>
       <c r="H36" t="n">
-        <v>25.04856219022721</v>
+        <v>18.60456449549937</v>
       </c>
       <c r="I36" t="n">
-        <v>34.80435126548728</v>
+        <v>34.76333519422793</v>
       </c>
       <c r="J36" t="n">
-        <v>135.3238340761888</v>
+        <v>132.9776934107944</v>
       </c>
       <c r="K36" t="n">
-        <v>3.935222594941981</v>
+        <v>3.894039661991212</v>
       </c>
       <c r="L36" t="n">
-        <v>77.70133516661845</v>
+        <v>58.03724165993083</v>
       </c>
       <c r="M36" t="n">
-        <v>-1.555767893791199</v>
+        <v>-1.059579491615295</v>
       </c>
       <c r="N36" t="n">
-        <v>-2.021947622299194</v>
+        <v>-1.285364747047424</v>
       </c>
       <c r="O36" t="n">
         <v>3</v>
@@ -2157,46 +2157,46 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>250.9999933894725</v>
+        <v>155.0000013299286</v>
       </c>
       <c r="B37" t="n">
-        <v>101.0000027716161</v>
+        <v>69.00000029057263</v>
       </c>
       <c r="C37" t="n">
-        <v>149.9999955296518</v>
+        <v>86.00000078231095</v>
       </c>
       <c r="D37" t="n">
-        <v>7.964300288703835</v>
+        <v>4.572299940774221</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.500000039115547</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G37" t="n">
-        <v>3.499999888241293</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H37" t="n">
-        <v>25.24098632754641</v>
+        <v>19.25217577848934</v>
       </c>
       <c r="I37" t="n">
-        <v>35.78883672772361</v>
+        <v>32.26871757665982</v>
       </c>
       <c r="J37" t="n">
-        <v>139.1980055444706</v>
+        <v>123.7058066034134</v>
       </c>
       <c r="K37" t="n">
-        <v>3.936255006207037</v>
+        <v>3.896774334335003</v>
       </c>
       <c r="L37" t="n">
-        <v>78.27671514365424</v>
+        <v>60.07887695683014</v>
       </c>
       <c r="M37" t="n">
-        <v>-2.670197725296021</v>
+        <v>-0.8295130133628845</v>
       </c>
       <c r="N37" t="n">
-        <v>-2.187496900558472</v>
+        <v>-1.048676371574402</v>
       </c>
       <c r="O37" t="n">
         <v>3</v>
@@ -2204,46 +2204,46 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>258.9999928083272</v>
+        <v>155.0000013299286</v>
       </c>
       <c r="B38" t="n">
-        <v>104.999999076128</v>
+        <v>68.00000271201124</v>
       </c>
       <c r="C38" t="n">
-        <v>154.0000030398368</v>
+        <v>86.9999969489873</v>
       </c>
       <c r="D38" t="n">
-        <v>9.577300222291694</v>
+        <v>4.118300063882194</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>4.500000273808832</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.499999888241293</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H38" t="n">
-        <v>25.87088413507851</v>
+        <v>19.1121580861785</v>
       </c>
       <c r="I38" t="n">
-        <v>33.92874204167087</v>
+        <v>33.50811043820534</v>
       </c>
       <c r="J38" t="n">
-        <v>132.0978819827811</v>
+        <v>128.4007589658451</v>
       </c>
       <c r="K38" t="n">
-        <v>3.938223957515621</v>
+        <v>3.896774334335003</v>
       </c>
       <c r="L38" t="n">
-        <v>80.20206237471601</v>
+        <v>59.62884325013884</v>
       </c>
       <c r="M38" t="n">
-        <v>-2.813646554946899</v>
+        <v>-1.4040447473526</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.951767444610596</v>
+        <v>-1.049384117126465</v>
       </c>
       <c r="O38" t="n">
         <v>3</v>
@@ -2251,46 +2251,46 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>263.000001816079</v>
+        <v>164.9999946169555</v>
       </c>
       <c r="B39" t="n">
-        <v>105.999998152256</v>
+        <v>76.99999951571228</v>
       </c>
       <c r="C39" t="n">
-        <v>157.0000029504298</v>
+        <v>88.00000312924379</v>
       </c>
       <c r="D39" t="n">
-        <v>9.405299904809265</v>
+        <v>6.885300046978768</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.500000352039927</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G39" t="n">
-        <v>3.499999888241293</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H39" t="n">
-        <v>26.06026879019343</v>
+        <v>20.5506732827355</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56364396139095</v>
+        <v>29.34467395477791</v>
       </c>
       <c r="J39" t="n">
-        <v>134.6105181427991</v>
+        <v>112.9355785115517</v>
       </c>
       <c r="K39" t="n">
-        <v>3.939163308116131</v>
+        <v>3.90303029525065</v>
       </c>
       <c r="L39" t="n">
-        <v>80.76754526445616</v>
+        <v>64.14277120689749</v>
       </c>
       <c r="M39" t="n">
-        <v>-2.443346738815308</v>
+        <v>-1.24086606502533</v>
       </c>
       <c r="N39" t="n">
-        <v>-2.298053026199341</v>
+        <v>-1.249656915664673</v>
       </c>
       <c r="O39" t="n">
         <v>3</v>
@@ -2298,46 +2298,46 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>263.000001816079</v>
+        <v>171.0000003166497</v>
       </c>
       <c r="B40" t="n">
-        <v>104</v>
+        <v>76.99999951571228</v>
       </c>
       <c r="C40" t="n">
-        <v>158.9999952614309</v>
+        <v>94.00000015646219</v>
       </c>
       <c r="D40" t="n">
-        <v>8.25630032541949</v>
+        <v>6.155300388236618</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>1.499999882653358</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G40" t="n">
-        <v>4.500000111758707</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H40" t="n">
-        <v>25.8132460852458</v>
+        <v>20.67337369004086</v>
       </c>
       <c r="I40" t="n">
-        <v>36.19433651748052</v>
+        <v>31.03602582010881</v>
       </c>
       <c r="J40" t="n">
-        <v>140.9092195453697</v>
+        <v>119.4969453179554</v>
       </c>
       <c r="K40" t="n">
-        <v>3.939163308116131</v>
+        <v>3.906432975239817</v>
       </c>
       <c r="L40" t="n">
-        <v>79.98716826717968</v>
+        <v>64.47479432319933</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.979409217834473</v>
+        <v>-1.375620722770691</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.333903312683105</v>
+        <v>-1.193273067474365</v>
       </c>
       <c r="O40" t="n">
         <v>3</v>
@@ -2345,610 +2345,610 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>210.9999962951989</v>
+        <v>180.9999936036766</v>
       </c>
       <c r="B41" t="n">
-        <v>82.99999722838393</v>
+        <v>79.99999845027929</v>
       </c>
       <c r="C41" t="n">
-        <v>128</v>
+        <v>101.0000033639371</v>
       </c>
       <c r="D41" t="n">
-        <v>6.750300103258035</v>
+        <v>6.284299683076704</v>
       </c>
       <c r="E41" t="n">
-        <v>4.999999903142456</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>-4.499999960884453</v>
+        <v>-0.4999995157122684</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4999998137354879</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H41" t="n">
-        <v>22.22897499022107</v>
+        <v>21.27280349271189</v>
       </c>
       <c r="I41" t="n">
-        <v>31.94600482467312</v>
+        <v>31.91255145923188</v>
       </c>
       <c r="J41" t="n">
-        <v>123.517194943996</v>
+        <v>123.0760313099069</v>
       </c>
       <c r="K41" t="n">
-        <v>3.924170860316957</v>
+        <v>3.911602204271193</v>
       </c>
       <c r="L41" t="n">
-        <v>69.06301218418484</v>
+        <v>66.29311602689937</v>
       </c>
       <c r="M41" t="n">
-        <v>-2.318480253219604</v>
+        <v>-1.39657461643219</v>
       </c>
       <c r="N41" t="n">
-        <v>-2.243603229522705</v>
+        <v>-1.28432023525238</v>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>218.9999957140536</v>
+        <v>191.0000031031668</v>
       </c>
       <c r="B42" t="n">
-        <v>88.99999907612798</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C42" t="n">
-        <v>130.0000037550925</v>
+        <v>106.0000042244791</v>
       </c>
       <c r="D42" t="n">
-        <v>8.82730051021818</v>
+        <v>7.880300141063876</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>-4.499999960884453</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.500000111758707</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H42" t="n">
-        <v>23.16162495586141</v>
+        <v>22.12491966939389</v>
       </c>
       <c r="I42" t="n">
-        <v>29.95546630802093</v>
+        <v>30.27941905540362</v>
       </c>
       <c r="J42" t="n">
-        <v>116.0546358016328</v>
+        <v>117.0228925183133</v>
       </c>
       <c r="K42" t="n">
-        <v>3.926940820365671</v>
+        <v>3.916230506281505</v>
       </c>
       <c r="L42" t="n">
-        <v>71.95860609507052</v>
+        <v>68.91669267525555</v>
       </c>
       <c r="M42" t="n">
-        <v>-1.110909938812256</v>
+        <v>-1.339722156524658</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.375645041465759</v>
+        <v>-1.312390685081482</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>217.0000005085021</v>
+        <v>191.0000031031668</v>
       </c>
       <c r="B43" t="n">
-        <v>85.00000277161607</v>
+        <v>82.99999738484631</v>
       </c>
       <c r="C43" t="n">
-        <v>131.9999960660936</v>
+        <v>107.9999965578318</v>
       </c>
       <c r="D43" t="n">
-        <v>7.202299899038862</v>
+        <v>7.023300256836399</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.499999960884453</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.500000111758707</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H43" t="n">
-        <v>22.60057094414897</v>
+        <v>21.86307634268769</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6725707698453</v>
+        <v>31.31897225225565</v>
       </c>
       <c r="J43" t="n">
-        <v>122.5638620493081</v>
+        <v>120.970228137817</v>
       </c>
       <c r="K43" t="n">
-        <v>3.926267535826209</v>
+        <v>3.916230506281505</v>
       </c>
       <c r="L43" t="n">
-        <v>70.19243852848091</v>
+        <v>68.08130691784476</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.029951333999634</v>
+        <v>-1.485676288604736</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.332724809646606</v>
+        <v>-1.590983629226685</v>
       </c>
       <c r="O43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>229.0000089351087</v>
+        <v>196.9999925903976</v>
       </c>
       <c r="B44" t="n">
-        <v>95.00000092387202</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C44" t="n">
-        <v>133.9999998211861</v>
+        <v>110.999995071441</v>
       </c>
       <c r="D44" t="n">
-        <v>8.135299522779819</v>
+        <v>7.509299914302818</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.499999804422263</v>
+        <v>6.500000856816756</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.500000111758707</v>
+        <v>6.499999687075624</v>
       </c>
       <c r="H44" t="n">
-        <v>24.10836338675643</v>
+        <v>22.36970434960282</v>
       </c>
       <c r="I44" t="n">
-        <v>33.30709916762798</v>
+        <v>31.38330738288338</v>
       </c>
       <c r="J44" t="n">
-        <v>129.2794936818154</v>
+        <v>121.3626636934658</v>
       </c>
       <c r="K44" t="n">
-        <v>3.930130802541274</v>
+        <v>3.918781874452045</v>
       </c>
       <c r="L44" t="n">
-        <v>74.87665744947505</v>
+        <v>69.63983921963236</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.962993144989014</v>
+        <v>-1.229338049888611</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.124155759811401</v>
+        <v>-1.471289277076721</v>
       </c>
       <c r="O44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>229.0000089351087</v>
+        <v>195.0000069029629</v>
       </c>
       <c r="B45" t="n">
-        <v>92.00000369548809</v>
+        <v>82.99999738484631</v>
       </c>
       <c r="C45" t="n">
-        <v>136.9999997317791</v>
+        <v>112.0000012516975</v>
       </c>
       <c r="D45" t="n">
-        <v>6.476299830586779</v>
+        <v>6.232299640977605</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.499999882653358</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G45" t="n">
-        <v>1.500000037252903</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H45" t="n">
-        <v>23.72465130321552</v>
+        <v>21.93872983059681</v>
       </c>
       <c r="I45" t="n">
-        <v>36.15133603085883</v>
+        <v>33.24711156966067</v>
       </c>
       <c r="J45" t="n">
-        <v>140.2208265900268</v>
+        <v>128.4458955742592</v>
       </c>
       <c r="K45" t="n">
-        <v>3.930130802541274</v>
+        <v>3.91794879035933</v>
       </c>
       <c r="L45" t="n">
-        <v>73.65906624053586</v>
+        <v>68.28466351044467</v>
       </c>
       <c r="M45" t="n">
-        <v>-1.064150452613831</v>
+        <v>-1.684394001960754</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.544996976852417</v>
+        <v>-1.680055141448975</v>
       </c>
       <c r="O45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>229.0000089351087</v>
+        <v>198.9999944902957</v>
       </c>
       <c r="B46" t="n">
-        <v>90.99999722838393</v>
+        <v>87.00000009685755</v>
       </c>
       <c r="C46" t="n">
-        <v>137.9999958872796</v>
+        <v>112.0000012516975</v>
       </c>
       <c r="D46" t="n">
-        <v>5.83529996624016</v>
+        <v>7.83330032381224</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.499999804422263</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.500000037252903</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.59536061865017</v>
+        <v>22.53729520589816</v>
       </c>
       <c r="I46" t="n">
-        <v>37.6712321461568</v>
+        <v>31.08471247608122</v>
       </c>
       <c r="J46" t="n">
-        <v>146.080386021844</v>
+        <v>120.2533756601372</v>
       </c>
       <c r="K46" t="n">
-        <v>3.930130802541274</v>
+        <v>3.919598014461518</v>
       </c>
       <c r="L46" t="n">
-        <v>73.24869996634632</v>
+        <v>70.15496983993445</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.519410848617554</v>
+        <v>-1.317875146865845</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.38060188293457</v>
+        <v>-1.285889148712158</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>231.0000041406601</v>
+        <v>196.9999925903976</v>
       </c>
       <c r="B47" t="n">
-        <v>92.00000369548809</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C47" t="n">
-        <v>139.0000034868716</v>
+        <v>112.9999974183739</v>
       </c>
       <c r="D47" t="n">
-        <v>5.576500149582585</v>
+        <v>6.505300180930448</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2.499999804422263</v>
+        <v>6.500000856816756</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4999998137354879</v>
+        <v>6.499999687075624</v>
       </c>
       <c r="H47" t="n">
-        <v>23.75905952750868</v>
+        <v>22.10806333568527</v>
       </c>
       <c r="I47" t="n">
-        <v>38.95892649615987</v>
+        <v>32.93408679934767</v>
       </c>
       <c r="J47" t="n">
-        <v>151.1223131559039</v>
+        <v>127.2874905973697</v>
       </c>
       <c r="K47" t="n">
-        <v>3.930735696860819</v>
+        <v>3.918781874452045</v>
       </c>
       <c r="L47" t="n">
-        <v>73.75097526801993</v>
+        <v>68.80580480911455</v>
       </c>
       <c r="M47" t="n">
-        <v>-1.961101412773132</v>
+        <v>-1.462597608566284</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.553867936134338</v>
+        <v>-1.5630122423172</v>
       </c>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>234.999994551763</v>
+        <v>202.9999982900918</v>
       </c>
       <c r="B48" t="n">
-        <v>93.00000277161607</v>
+        <v>87.00000009685755</v>
       </c>
       <c r="C48" t="n">
-        <v>142.0000033974646</v>
+        <v>115.9999959319831</v>
       </c>
       <c r="D48" t="n">
-        <v>5.193999913354672</v>
+        <v>7.391299965969894</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.499999804422263</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.500000037252903</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H48" t="n">
-        <v>23.95628319287608</v>
+        <v>22.61217392778712</v>
       </c>
       <c r="I48" t="n">
-        <v>40.80674709217838</v>
+        <v>32.00065327607746</v>
       </c>
       <c r="J48" t="n">
-        <v>158.3516114107799</v>
+        <v>123.8217755306354</v>
       </c>
       <c r="K48" t="n">
-        <v>3.931914881657204</v>
+        <v>3.92118202951608</v>
       </c>
       <c r="L48" t="n">
-        <v>74.34234205813834</v>
+        <v>70.35596157547165</v>
       </c>
       <c r="M48" t="n">
-        <v>-1.601408004760742</v>
+        <v>-1.460131525993347</v>
       </c>
       <c r="N48" t="n">
-        <v>-1.54930853843689</v>
+        <v>-1.333019137382507</v>
       </c>
       <c r="O48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>240.9999987650663</v>
+        <v>202.9999982900918</v>
       </c>
       <c r="B49" t="n">
-        <v>97.99999815225596</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C49" t="n">
-        <v>142.9999995529652</v>
+        <v>117.9999982789159</v>
       </c>
       <c r="D49" t="n">
-        <v>7.455299709260578</v>
+        <v>6.210299672232996</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.500000039115547</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.499999888241293</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H49" t="n">
-        <v>24.69538937156703</v>
+        <v>22.35075131972095</v>
       </c>
       <c r="I49" t="n">
-        <v>35.89165965084031</v>
+        <v>34.10850130458918</v>
       </c>
       <c r="J49" t="n">
-        <v>139.4647031302379</v>
+        <v>131.9047087790639</v>
       </c>
       <c r="K49" t="n">
-        <v>3.933609959802009</v>
+        <v>3.92118202951608</v>
       </c>
       <c r="L49" t="n">
-        <v>76.63384505206785</v>
+        <v>69.52331370317216</v>
       </c>
       <c r="M49" t="n">
-        <v>-1.244111299514771</v>
+        <v>-1.550168991088867</v>
       </c>
       <c r="N49" t="n">
-        <v>-1.33024263381958</v>
+        <v>-1.698071002960205</v>
       </c>
       <c r="O49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>239.0000035595148</v>
+        <v>207.0000020898879</v>
       </c>
       <c r="B50" t="n">
-        <v>93.00000277161607</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C50" t="n">
-        <v>145.9999994635582</v>
+        <v>122.0000029727816</v>
       </c>
       <c r="D50" t="n">
-        <v>4.597400208062496</v>
+        <v>5.873300208996514</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>2.499999804422263</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.500000037252903</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H50" t="n">
-        <v>24.02376825303681</v>
+        <v>22.42355633552627</v>
       </c>
       <c r="I50" t="n">
-        <v>43.37373154015824</v>
+        <v>35.0733976087897</v>
       </c>
       <c r="J50" t="n">
-        <v>168.3372479403387</v>
+        <v>135.6625078975968</v>
       </c>
       <c r="K50" t="n">
-        <v>3.93305440637172</v>
+        <v>3.922705456636625</v>
       </c>
       <c r="L50" t="n">
-        <v>74.52242348379238</v>
+        <v>69.71851998482374</v>
       </c>
       <c r="M50" t="n">
-        <v>-1.931442260742188</v>
+        <v>-1.697830319404602</v>
       </c>
       <c r="N50" t="n">
-        <v>-1.77073335647583</v>
+        <v>-1.89067554473877</v>
       </c>
       <c r="O50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>240.9999987650663</v>
+        <v>209.0000039897859</v>
       </c>
       <c r="B51" t="n">
-        <v>95.00000092387202</v>
+        <v>87.00000009685755</v>
       </c>
       <c r="C51" t="n">
-        <v>145.9999994635582</v>
+        <v>122.0000029727816</v>
       </c>
       <c r="D51" t="n">
-        <v>5.638000139405738</v>
+        <v>6.777299910475628</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.499999804422263</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G51" t="n">
-        <v>2.500000260770317</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H51" t="n">
-        <v>24.31446132516146</v>
+        <v>22.72221599174828</v>
       </c>
       <c r="I51" t="n">
-        <v>40.00931221139695</v>
+        <v>33.41880508581708</v>
       </c>
       <c r="J51" t="n">
-        <v>155.3624366770684</v>
+        <v>129.3464022842197</v>
       </c>
       <c r="K51" t="n">
-        <v>3.933609959802009</v>
+        <v>3.923445091542977</v>
       </c>
       <c r="L51" t="n">
-        <v>75.42693638419198</v>
+        <v>70.6510267619032</v>
       </c>
       <c r="M51" t="n">
-        <v>-1.331536054611206</v>
+        <v>-1.692620038986206</v>
       </c>
       <c r="N51" t="n">
-        <v>-1.553648471832275</v>
+        <v>-1.683515310287476</v>
       </c>
       <c r="O51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>240.9999987650663</v>
+        <v>214.9999934770167</v>
       </c>
       <c r="B52" t="n">
-        <v>94.00000184774404</v>
+        <v>89.00000145286316</v>
       </c>
       <c r="C52" t="n">
-        <v>146.9999956190588</v>
+        <v>125.9999976530672</v>
       </c>
       <c r="D52" t="n">
-        <v>5.140299822399818</v>
+        <v>7.746299983511186</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2.499999804422263</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4999998137354879</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H52" t="n">
-        <v>24.18615062166776</v>
+        <v>23.09057470266809</v>
       </c>
       <c r="I52" t="n">
-        <v>41.46040923293915</v>
+        <v>31.977379059518</v>
       </c>
       <c r="J52" t="n">
-        <v>160.9604816014684</v>
+        <v>123.8665592029281</v>
       </c>
       <c r="K52" t="n">
-        <v>3.933609959802009</v>
+        <v>3.925581329674096</v>
       </c>
       <c r="L52" t="n">
-        <v>75.02031427284339</v>
+        <v>71.7684709919005</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.724137306213379</v>
+        <v>-1.961763858795166</v>
       </c>
       <c r="N52" t="n">
-        <v>-1.752097845077515</v>
+        <v>-1.828772783279419</v>
       </c>
       <c r="O52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253.0000071916728</v>
+        <v>152.9999994300306</v>
       </c>
       <c r="B53" t="n">
-        <v>102.000001847744</v>
+        <v>69.00000029057263</v>
       </c>
       <c r="C53" t="n">
-        <v>151.0000031292438</v>
+        <v>83.9999984353781</v>
       </c>
       <c r="D53" t="n">
-        <v>8.415299927579515</v>
+        <v>5.24329994428248</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.499999960884453</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G53" t="n">
-        <v>3.499999888241293</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H53" t="n">
-        <v>25.39920880757988</v>
+        <v>19.21054877272076</v>
       </c>
       <c r="I53" t="n">
-        <v>35.16133443764205</v>
+        <v>30.13330381027983</v>
       </c>
       <c r="J53" t="n">
-        <v>136.7932255808649</v>
+        <v>115.4994339465267</v>
       </c>
       <c r="K53" t="n">
-        <v>3.936759032759306</v>
+        <v>3.895424969160485</v>
       </c>
       <c r="L53" t="n">
-        <v>78.76055967983453</v>
+        <v>59.9657790754579</v>
       </c>
       <c r="M53" t="n">
-        <v>-2.710012912750244</v>
+        <v>-1.278218388557434</v>
       </c>
       <c r="N53" t="n">
-        <v>-2.199612855911255</v>
+        <v>-1.257081627845764</v>
       </c>
       <c r="O53" t="n">
         <v>4</v>
@@ -2956,3432 +2956,5547 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>216.9999921116978</v>
+        <v>161.0000070296228</v>
       </c>
       <c r="B54" t="n">
-        <v>89.99999675899743</v>
+        <v>74.99999815970666</v>
       </c>
       <c r="C54" t="n">
-        <v>127.0000038333236</v>
+        <v>86.00000078231095</v>
       </c>
       <c r="D54" t="n">
-        <v>9.435299647858377</v>
+        <v>6.425300410561898</v>
       </c>
       <c r="E54" t="n">
-        <v>4.999999903142456</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>4.500000273808832</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.5000001117587073</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H54" t="n">
-        <v>23.25579612974856</v>
+        <v>20.19923527777524</v>
       </c>
       <c r="I54" t="n">
-        <v>29.29979958163655</v>
+        <v>29.58792884001881</v>
       </c>
       <c r="J54" t="n">
-        <v>113.5336805567295</v>
+        <v>113.7556648047397</v>
       </c>
       <c r="K54" t="n">
-        <v>3.926267295716902</v>
+        <v>3.900621154687927</v>
       </c>
       <c r="L54" t="n">
-        <v>72.27575157969312</v>
+        <v>63.05740035081352</v>
       </c>
       <c r="M54" t="n">
-        <v>-2.297272920608521</v>
+        <v>-1.173454165458679</v>
       </c>
       <c r="N54" t="n">
-        <v>-1.943090438842773</v>
+        <v>-1.239292502403259</v>
       </c>
       <c r="O54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>221.0000001955777</v>
+        <v>162.9999927170575</v>
       </c>
       <c r="B55" t="n">
-        <v>91.00000248476864</v>
+        <v>76.00000193715088</v>
       </c>
       <c r="C55" t="n">
-        <v>130.0000023469328</v>
+        <v>86.9999969489873</v>
       </c>
       <c r="D55" t="n">
-        <v>9.251299537789246</v>
+        <v>6.685299983192253</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-4.499999960884453</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.500000111758707</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H55" t="n">
-        <v>23.45593384237028</v>
+        <v>20.37533476623857</v>
       </c>
       <c r="I55" t="n">
-        <v>29.91851332640751</v>
+        <v>29.3936244337816</v>
       </c>
       <c r="J55" t="n">
-        <v>115.979794916793</v>
+        <v>113.0670374129905</v>
       </c>
       <c r="K55" t="n">
-        <v>3.927601816475869</v>
+        <v>3.901840358495725</v>
       </c>
       <c r="L55" t="n">
-        <v>72.87602295262613</v>
+        <v>63.60140193442317</v>
       </c>
       <c r="M55" t="n">
-        <v>-1.248098611831665</v>
+        <v>-1.237794280052185</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.416264891624451</v>
+        <v>-1.27878737449646</v>
       </c>
       <c r="O55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>219.000004498288</v>
+        <v>166.9999965168536</v>
       </c>
       <c r="B56" t="n">
-        <v>87.00000032410026</v>
+        <v>74.99999815970666</v>
       </c>
       <c r="C56" t="n">
-        <v>132.0000046938657</v>
+        <v>91.99999780952935</v>
       </c>
       <c r="D56" t="n">
-        <v>7.449300031963257</v>
+        <v>5.405299830104619</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-4.499999960884453</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.500000111758707</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H56" t="n">
-        <v>22.89990133200348</v>
+        <v>20.32279091641443</v>
       </c>
       <c r="I56" t="n">
-        <v>31.8758314641957</v>
+        <v>32.25903401511172</v>
       </c>
       <c r="J56" t="n">
-        <v>123.4293299309706</v>
+        <v>124.0819286672288</v>
       </c>
       <c r="K56" t="n">
-        <v>3.926940608998316</v>
+        <v>3.904191735138306</v>
       </c>
       <c r="L56" t="n">
-        <v>71.12668747023488</v>
+        <v>63.39211208437121</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.9233778119087219</v>
+        <v>-1.60355019569397</v>
       </c>
       <c r="N56" t="n">
-        <v>-1.378855586051941</v>
+        <v>-1.222956418991089</v>
       </c>
       <c r="O56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>222.9999958928675</v>
+        <v>177.0000060163438</v>
       </c>
       <c r="B57" t="n">
-        <v>87.00000032410026</v>
+        <v>79.0000008717179</v>
       </c>
       <c r="C57" t="n">
-        <v>135.9999993741512</v>
+        <v>98.00000485032788</v>
       </c>
       <c r="D57" t="n">
-        <v>5.561699944954063</v>
+        <v>6.298299547211429</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.000000447034829</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.999999821186071</v>
+      </c>
+      <c r="H57" t="n">
+        <v>21.06084176345195</v>
+      </c>
+      <c r="I57" t="n">
+        <v>31.47860026178154</v>
+      </c>
+      <c r="J57" t="n">
+        <v>121.3320268773724</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.909604599548414</v>
+      </c>
+      <c r="L57" t="n">
+        <v>65.65484392097348</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-1.558229446411133</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-1.15854549407959</v>
+      </c>
+      <c r="O57" t="n">
         <v>4</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-1.499999882653358</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-4.500000111758707</v>
-      </c>
-      <c r="H57" t="n">
-        <v>22.96908991291225</v>
-      </c>
-      <c r="I57" t="n">
-        <v>36.89058004212578</v>
-      </c>
-      <c r="J57" t="n">
-        <v>142.8712075483769</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.928250918149562</v>
-      </c>
-      <c r="L57" t="n">
-        <v>71.31165222823498</v>
-      </c>
-      <c r="M57" t="n">
-        <v>-0.9798773527145386</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-1.200257897377014</v>
-      </c>
-      <c r="O57" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>227.0000039767474</v>
+        <v>180.9999936036766</v>
       </c>
       <c r="B58" t="n">
-        <v>88.99999794736503</v>
+        <v>81.00000222772351</v>
       </c>
       <c r="C58" t="n">
-        <v>138.0000017210841</v>
+        <v>99.99999718368059</v>
       </c>
       <c r="D58" t="n">
-        <v>5.042500215760512</v>
+        <v>6.968299697109737</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.499999882653358</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.500000037252903</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H58" t="n">
-        <v>23.30053797068093</v>
+        <v>21.40534825639209</v>
       </c>
       <c r="I58" t="n">
-        <v>39.6339208582628</v>
+        <v>30.68468138265253</v>
       </c>
       <c r="J58" t="n">
-        <v>153.6016244791194</v>
+        <v>118.3780103639753</v>
       </c>
       <c r="K58" t="n">
-        <v>3.92951539818619</v>
+        <v>3.911602204271193</v>
       </c>
       <c r="L58" t="n">
-        <v>72.32995298311288</v>
+        <v>66.71671400999654</v>
       </c>
       <c r="M58" t="n">
-        <v>-1.311220288276672</v>
+        <v>-1.961766958236694</v>
       </c>
       <c r="N58" t="n">
-        <v>-1.41643500328064</v>
+        <v>-1.309595584869385</v>
       </c>
       <c r="O58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>244.9999986309558</v>
+        <v>180.9999936036766</v>
       </c>
       <c r="B59" t="n">
-        <v>98.99999989196658</v>
+        <v>77.99999709427368</v>
       </c>
       <c r="C59" t="n">
-        <v>146.0000010952353</v>
+        <v>102.9999956972898</v>
       </c>
       <c r="D59" t="n">
-        <v>7.865299944635682</v>
+        <v>5.149299990846635</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.499999882653358</v>
+        <v>-0.4999995157122684</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.500000037252903</v>
+        <v>-0.4999998658895533</v>
       </c>
       <c r="H59" t="n">
-        <v>24.88925653418604</v>
+        <v>21.00521034459199</v>
       </c>
       <c r="I59" t="n">
-        <v>35.30023185391073</v>
+        <v>34.37324143497744</v>
       </c>
       <c r="J59" t="n">
-        <v>137.2143584771653</v>
+        <v>132.4789456523562</v>
       </c>
       <c r="K59" t="n">
-        <v>3.934693799904465</v>
+        <v>3.911602204271193</v>
       </c>
       <c r="L59" t="n">
-        <v>77.21387751494166</v>
+        <v>65.43768529057587</v>
       </c>
       <c r="M59" t="n">
-        <v>-1.938203573226929</v>
+        <v>-1.109529614448547</v>
       </c>
       <c r="N59" t="n">
-        <v>-1.395771503448486</v>
+        <v>-1.23357617855072</v>
       </c>
       <c r="O59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>246.9999943282455</v>
+        <v>182.9999955035746</v>
       </c>
       <c r="B60" t="n">
-        <v>98.00000108033419</v>
+        <v>77.99999709427368</v>
       </c>
       <c r="C60" t="n">
-        <v>148.9999996088445</v>
+        <v>104.9999980442226</v>
       </c>
       <c r="D60" t="n">
-        <v>6.49730029303632</v>
+        <v>4.822300020507364</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>3.500000352039927</v>
+        <v>-0.4999995157122684</v>
       </c>
       <c r="G60" t="n">
-        <v>2.500000260770317</v>
+        <v>-0.4999998658895533</v>
       </c>
       <c r="H60" t="n">
-        <v>24.79681136525653</v>
+        <v>21.04371874470375</v>
       </c>
       <c r="I60" t="n">
-        <v>38.44674736553096</v>
+        <v>35.51955501848724</v>
       </c>
       <c r="J60" t="n">
-        <v>149.4236672439275</v>
+        <v>136.9138625235683</v>
       </c>
       <c r="K60" t="n">
-        <v>3.935222708239823</v>
+        <v>3.912568273744501</v>
       </c>
       <c r="L60" t="n">
-        <v>76.9043708544456</v>
+        <v>65.54142227940812</v>
       </c>
       <c r="M60" t="n">
-        <v>-1.723130941390991</v>
+        <v>-1.038989186286926</v>
       </c>
       <c r="N60" t="n">
-        <v>-1.627447605133057</v>
+        <v>-1.437636375427246</v>
       </c>
       <c r="O60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>254.9999938067049</v>
+        <v>184.9999974034727</v>
       </c>
       <c r="B61" t="n">
-        <v>104.0000008642673</v>
+        <v>79.0000008717179</v>
       </c>
       <c r="C61" t="n">
-        <v>151.0000019557774</v>
+        <v>106.0000042244791</v>
       </c>
       <c r="D61" t="n">
-        <v>9.055300073125473</v>
+        <v>5.180200091916367</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>-4.499999960884453</v>
+        <v>2.499999962747097</v>
       </c>
       <c r="G61" t="n">
-        <v>3.499999888241293</v>
+        <v>2.500000044703482</v>
       </c>
       <c r="H61" t="n">
-        <v>25.68069137640553</v>
+        <v>21.21658582656664</v>
       </c>
       <c r="I61" t="n">
-        <v>34.56064909983252</v>
+        <v>34.70993741269695</v>
       </c>
       <c r="J61" t="n">
-        <v>134.5164831421021</v>
+        <v>133.8538475283787</v>
       </c>
       <c r="K61" t="n">
-        <v>3.937255042121352</v>
+        <v>3.913513548206559</v>
       </c>
       <c r="L61" t="n">
-        <v>79.63404353715914</v>
+        <v>66.07460604960878</v>
       </c>
       <c r="M61" t="n">
-        <v>-2.391745328903198</v>
+        <v>-0.9327608346939087</v>
       </c>
       <c r="N61" t="n">
-        <v>-2.308435201644897</v>
+        <v>-1.54879367351532</v>
       </c>
       <c r="O61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>254.9999938067049</v>
+        <v>189.0000012032688</v>
       </c>
       <c r="B62" t="n">
-        <v>103.000002052635</v>
+        <v>81.99999980628492</v>
       </c>
       <c r="C62" t="n">
-        <v>151.9999981224537</v>
+        <v>107.0000003911555</v>
       </c>
       <c r="D62" t="n">
-        <v>8.502300024117421</v>
+        <v>5.915299801400688</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4999999608844526</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.5000001117587073</v>
+        <v>-0.4999998658895533</v>
       </c>
       <c r="H62" t="n">
-        <v>25.55692715037043</v>
+        <v>21.69288070923852</v>
       </c>
       <c r="I62" t="n">
-        <v>35.3239288431062</v>
+        <v>33.71517885395589</v>
       </c>
       <c r="J62" t="n">
-        <v>137.4611344983097</v>
+        <v>130.1716943851984</v>
       </c>
       <c r="K62" t="n">
-        <v>3.937255042121352</v>
+        <v>3.915344022653726</v>
       </c>
       <c r="L62" t="n">
-        <v>79.24271984409337</v>
+        <v>67.55729400702727</v>
       </c>
       <c r="M62" t="n">
-        <v>-2.034695386886597</v>
+        <v>-1.891124963760376</v>
       </c>
       <c r="N62" t="n">
-        <v>-2.240401029586792</v>
+        <v>-1.496262311935425</v>
       </c>
       <c r="O62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>259.0000018905848</v>
+        <v>195.0000069029629</v>
       </c>
       <c r="B63" t="n">
-        <v>103.000002052635</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C63" t="n">
-        <v>156.0000028163194</v>
+        <v>110.999995071441</v>
       </c>
       <c r="D63" t="n">
-        <v>8.575300418797124</v>
+        <v>6.745300129901236</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.4999999608844526</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5000001117587073</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H63" t="n">
-        <v>25.6233093807534</v>
+        <v>22.07049523023892</v>
       </c>
       <c r="I63" t="n">
-        <v>35.17325689823338</v>
+        <v>32.34287697445235</v>
       </c>
       <c r="J63" t="n">
-        <v>136.8916347283385</v>
+        <v>124.9892293975262</v>
       </c>
       <c r="K63" t="n">
-        <v>3.938223794663661</v>
+        <v>3.91794879035933</v>
       </c>
       <c r="L63" t="n">
-        <v>79.41958683906302</v>
+        <v>68.70488312630937</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.733622789382935</v>
+        <v>-1.586131572723389</v>
       </c>
       <c r="N63" t="n">
-        <v>-2.361002445220947</v>
+        <v>-1.436007022857666</v>
       </c>
       <c r="O63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>268.9999970663339</v>
+        <v>200.9999963901937</v>
       </c>
       <c r="B64" t="n">
-        <v>110.0000006482005</v>
+        <v>87.99999767541894</v>
       </c>
       <c r="C64" t="n">
-        <v>159.0000013299286</v>
+        <v>112.9999974183739</v>
       </c>
       <c r="D64" t="n">
-        <v>11.27529983888745</v>
+        <v>8.002300141701742</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>4.500000273808832</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G64" t="n">
-        <v>4.500000111758707</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H64" t="n">
-        <v>26.64741429936316</v>
+        <v>22.70426073175587</v>
       </c>
       <c r="I64" t="n">
-        <v>32.75885035942515</v>
+        <v>31.10822790226927</v>
       </c>
       <c r="J64" t="n">
-        <v>127.6928219837297</v>
+        <v>120.3888050929418</v>
       </c>
       <c r="K64" t="n">
-        <v>3.940520438596156</v>
+        <v>3.920397980573352</v>
       </c>
       <c r="L64" t="n">
-        <v>82.5724311243218</v>
+        <v>70.66796786592106</v>
       </c>
       <c r="M64" t="n">
-        <v>-2.400985479354858</v>
+        <v>-1.998863220214844</v>
       </c>
       <c r="N64" t="n">
-        <v>-2.442329883575439</v>
+        <v>-1.332203030586243</v>
       </c>
       <c r="O64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>270.9999927636237</v>
+        <v>200.9999963901937</v>
       </c>
       <c r="B65" t="n">
-        <v>110.0000006482005</v>
+        <v>87.00000009685755</v>
       </c>
       <c r="C65" t="n">
-        <v>161.0000036768615</v>
+        <v>114.0000035986304</v>
       </c>
       <c r="D65" t="n">
-        <v>10.94529984912115</v>
+        <v>7.601299841586192</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>4.500000273808832</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G65" t="n">
-        <v>2.500000260770317</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H65" t="n">
-        <v>26.68033103127304</v>
+        <v>22.57489089945205</v>
       </c>
       <c r="I65" t="n">
-        <v>33.24901978308937</v>
+        <v>31.55551849470116</v>
       </c>
       <c r="J65" t="n">
-        <v>129.6107143219378</v>
+        <v>122.0871827280047</v>
       </c>
       <c r="K65" t="n">
-        <v>3.940959418102832</v>
+        <v>3.920397980573352</v>
       </c>
       <c r="L65" t="n">
-        <v>82.66007459614512</v>
+        <v>70.25590559926978</v>
       </c>
       <c r="M65" t="n">
-        <v>-2.31260347366333</v>
+        <v>-1.041296601295471</v>
       </c>
       <c r="N65" t="n">
-        <v>-2.542748928070068</v>
+        <v>-1.381137847900391</v>
       </c>
       <c r="O65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>289.0000041071326</v>
+        <v>202.9999982900918</v>
       </c>
       <c r="B66" t="n">
-        <v>114.0000028088689</v>
+        <v>87.99999767541894</v>
       </c>
       <c r="C66" t="n">
-        <v>174.999990064651</v>
+        <v>114.9999997653067</v>
       </c>
       <c r="D66" t="n">
-        <v>9.965299796815568</v>
+        <v>7.735299999138882</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2.499999804422263</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G66" t="n">
-        <v>2.500000260770317</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H66" t="n">
-        <v>27.45377466591375</v>
+        <v>22.7417575679244</v>
       </c>
       <c r="I66" t="n">
-        <v>36.11267647153803</v>
+        <v>31.6405549391833</v>
       </c>
       <c r="J66" t="n">
-        <v>140.9309370116439</v>
+        <v>122.4611675675295</v>
       </c>
       <c r="K66" t="n">
-        <v>3.944636700142337</v>
+        <v>3.92118202951608</v>
       </c>
       <c r="L66" t="n">
-        <v>84.95557880125729</v>
+        <v>70.76860801812353</v>
       </c>
       <c r="M66" t="n">
-        <v>-2.096604585647583</v>
+        <v>-1.44433867931366</v>
       </c>
       <c r="N66" t="n">
-        <v>-2.76827335357666</v>
+        <v>-1.416375041007996</v>
       </c>
       <c r="O66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>218.9999957140536</v>
+        <v>205.0000001899898</v>
       </c>
       <c r="B67" t="n">
-        <v>92.00000369548809</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C67" t="n">
-        <v>127.0000038444995</v>
+        <v>120.9999967925251</v>
       </c>
       <c r="D67" t="n">
-        <v>9.943300525227606</v>
+        <v>5.325300059736071</v>
       </c>
       <c r="E67" t="n">
-        <v>4.999999903142456</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>4.500000273808832</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5000001117587073</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H67" t="n">
-        <v>23.54875461031604</v>
+        <v>22.25522289933624</v>
       </c>
       <c r="I67" t="n">
-        <v>29.17578540964498</v>
+        <v>36.40049027113313</v>
       </c>
       <c r="J67" t="n">
-        <v>113.1186977120133</v>
+        <v>140.7417292659794</v>
       </c>
       <c r="K67" t="n">
-        <v>3.926940820365671</v>
+        <v>3.921951188203837</v>
       </c>
       <c r="L67" t="n">
-        <v>73.18875594072121</v>
+        <v>69.20065851767539</v>
       </c>
       <c r="M67" t="n">
-        <v>-2.249207735061646</v>
+        <v>-1.719554901123047</v>
       </c>
       <c r="N67" t="n">
-        <v>-2.188311338424683</v>
+        <v>-1.980009317398071</v>
       </c>
       <c r="O67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>212.9999915007503</v>
+        <v>207.0000020898879</v>
       </c>
       <c r="B68" t="n">
-        <v>85.00000277161607</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C68" t="n">
-        <v>128</v>
+        <v>120.9999967925251</v>
       </c>
       <c r="D68" t="n">
-        <v>9.253999415314595</v>
+        <v>6.251299729959793</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.499999960884453</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.500000111758707</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H68" t="n">
-        <v>22.53059783049172</v>
+        <v>22.55507574120947</v>
       </c>
       <c r="I68" t="n">
-        <v>27.94178822705255</v>
+        <v>34.39642268532587</v>
       </c>
       <c r="J68" t="n">
-        <v>108.107712244787</v>
+        <v>133.081270358643</v>
       </c>
       <c r="K68" t="n">
-        <v>3.924882555801852</v>
+        <v>3.922705456636625</v>
       </c>
       <c r="L68" t="n">
-        <v>70.00521306907157</v>
+        <v>70.13725452675915</v>
       </c>
       <c r="M68" t="n">
-        <v>-1.494205832481384</v>
+        <v>-1.573274850845337</v>
       </c>
       <c r="N68" t="n">
-        <v>-1.400183200836182</v>
+        <v>-1.761470437049866</v>
       </c>
       <c r="O68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>223.0000047218054</v>
+        <v>213.000007789582</v>
       </c>
       <c r="B69" t="n">
-        <v>90.99999722838393</v>
+        <v>91.00000280886879</v>
       </c>
       <c r="C69" t="n">
-        <v>131.9999960660936</v>
+        <v>122.0000029727816</v>
       </c>
       <c r="D69" t="n">
-        <v>8.325299764977389</v>
+        <v>8.395299699342265</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.499999960884453</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.500000111758707</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H69" t="n">
-        <v>23.49118133633358</v>
+        <v>23.31223595073827</v>
       </c>
       <c r="I69" t="n">
-        <v>31.53852938185199</v>
+        <v>31.40677004446517</v>
       </c>
       <c r="J69" t="n">
-        <v>122.2699328586427</v>
+        <v>121.7069136647629</v>
       </c>
       <c r="K69" t="n">
-        <v>3.928251164487925</v>
+        <v>3.924882771333178</v>
       </c>
       <c r="L69" t="n">
-        <v>72.97028493792948</v>
+        <v>72.491378235265</v>
       </c>
       <c r="M69" t="n">
-        <v>-1.641213059425354</v>
+        <v>-1.811711430549622</v>
       </c>
       <c r="N69" t="n">
-        <v>-1.261696338653564</v>
+        <v>-1.625845193862915</v>
       </c>
       <c r="O69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>223.0000047218054</v>
+        <v>150.9999975301325</v>
       </c>
       <c r="B70" t="n">
-        <v>88.99999907612798</v>
+        <v>66.00000135600561</v>
       </c>
       <c r="C70" t="n">
-        <v>133.9999998211861</v>
+        <v>85.00000461563459</v>
       </c>
       <c r="D70" t="n">
-        <v>6.783299920302217</v>
+        <v>4.180200091916367</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.499999804422263</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.500000111758707</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H70" t="n">
-        <v>23.23160208195188</v>
+        <v>18.74712948973999</v>
       </c>
       <c r="I70" t="n">
-        <v>34.17192886025774</v>
+        <v>32.28088358730226</v>
       </c>
       <c r="J70" t="n">
-        <v>132.4123083212684</v>
+        <v>123.5411422952199</v>
       </c>
       <c r="K70" t="n">
-        <v>3.928251164487925</v>
+        <v>3.894039661991212</v>
       </c>
       <c r="L70" t="n">
-        <v>72.14573479988249</v>
+        <v>58.49604504489643</v>
       </c>
       <c r="M70" t="n">
-        <v>-1.178103566169739</v>
+        <v>-1.089404225349426</v>
       </c>
       <c r="N70" t="n">
-        <v>-1.096285104751587</v>
+        <v>-1.07785964012146</v>
       </c>
       <c r="O70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>232.9999993462116</v>
+        <v>171.0000003166497</v>
       </c>
       <c r="B71" t="n">
-        <v>96</v>
+        <v>79.0000008717179</v>
       </c>
       <c r="C71" t="n">
-        <v>136.9999997317791</v>
+        <v>91.99999780952935</v>
       </c>
       <c r="D71" t="n">
-        <v>7.465300081085018</v>
+        <v>7.16429970859131</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1.499999882653358</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G71" t="n">
-        <v>1.500000037252903</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H71" t="n">
-        <v>24.30496283446664</v>
+        <v>20.94013919493448</v>
       </c>
       <c r="I71" t="n">
-        <v>35.1356199991719</v>
+        <v>29.51482473435141</v>
       </c>
       <c r="J71" t="n">
-        <v>136.4281422074597</v>
+        <v>113.716635951982</v>
       </c>
       <c r="K71" t="n">
-        <v>3.931330598088868</v>
+        <v>3.906432975239817</v>
       </c>
       <c r="L71" t="n">
-        <v>75.46529062925198</v>
+        <v>65.32880332997917</v>
       </c>
       <c r="M71" t="n">
-        <v>-1.343913197517395</v>
+        <v>-1.278410315513611</v>
       </c>
       <c r="N71" t="n">
-        <v>-1.229480504989624</v>
+        <v>-1.239093780517578</v>
       </c>
       <c r="O71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>232.9999993462116</v>
+        <v>168.9999984167516</v>
       </c>
       <c r="B72" t="n">
-        <v>94.00000184774404</v>
+        <v>74.99999815970666</v>
       </c>
       <c r="C72" t="n">
-        <v>139.0000034868716</v>
+        <v>94.00000015646219</v>
       </c>
       <c r="D72" t="n">
-        <v>6.414299981363295</v>
+        <v>5.014299979683996</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>2.499999804422263</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G72" t="n">
-        <v>1.500000037252903</v>
+        <v>1.999999821186071</v>
       </c>
       <c r="H72" t="n">
-        <v>24.05045104467797</v>
+        <v>20.36315461675844</v>
       </c>
       <c r="I72" t="n">
-        <v>37.11532088980555</v>
+        <v>33.49316046643284</v>
       </c>
       <c r="J72" t="n">
-        <v>144.0499036323742</v>
+        <v>128.8475957030946</v>
       </c>
       <c r="K72" t="n">
-        <v>3.931330598088868</v>
+        <v>3.905325448344294</v>
       </c>
       <c r="L72" t="n">
-        <v>74.6581551210713</v>
+        <v>63.50128965210076</v>
       </c>
       <c r="M72" t="n">
-        <v>-1.391083598136902</v>
+        <v>-1.389905214309692</v>
       </c>
       <c r="N72" t="n">
-        <v>-1.341731190681458</v>
+        <v>-1.29529857635498</v>
       </c>
       <c r="O72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>229.0000089351087</v>
+        <v>175.0000041164458</v>
       </c>
       <c r="B73" t="n">
-        <v>89.99999815225596</v>
+        <v>77.99999709427368</v>
       </c>
       <c r="C73" t="n">
-        <v>139.0000034868716</v>
+        <v>96.99999867007139</v>
       </c>
       <c r="D73" t="n">
-        <v>5.16779982154701</v>
+        <v>6.164300027523881</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>2.499999804422263</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4999998137354879</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H73" t="n">
-        <v>23.46535570311266</v>
+        <v>20.88752637484149</v>
       </c>
       <c r="I73" t="n">
-        <v>39.59037739942266</v>
+        <v>31.41613199317515</v>
       </c>
       <c r="J73" t="n">
-        <v>153.4840827625091</v>
+        <v>121.0349330934062</v>
       </c>
       <c r="K73" t="n">
-        <v>3.930130802541274</v>
+        <v>3.908571523927741</v>
       </c>
       <c r="L73" t="n">
-        <v>72.83603769333357</v>
+        <v>65.12024545949423</v>
       </c>
       <c r="M73" t="n">
-        <v>-1.997511506080627</v>
+        <v>-1.149638652801514</v>
       </c>
       <c r="N73" t="n">
-        <v>-1.82941198348999</v>
+        <v>-1.200958847999573</v>
       </c>
       <c r="O73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>234.999994551763</v>
+        <v>175.0000041164458</v>
       </c>
       <c r="B74" t="n">
-        <v>94.00000184774404</v>
+        <v>76.99999951571228</v>
       </c>
       <c r="C74" t="n">
-        <v>140.9999957978727</v>
+        <v>98.00000485032788</v>
       </c>
       <c r="D74" t="n">
-        <v>5.951300094957367</v>
+        <v>5.43030031647679</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>2.499999804422263</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G74" t="n">
-        <v>2.500000260770317</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H74" t="n">
-        <v>24.08473490911489</v>
+        <v>20.75319758020686</v>
       </c>
       <c r="I74" t="n">
-        <v>38.53203337206275</v>
+        <v>33.04295023245479</v>
       </c>
       <c r="J74" t="n">
-        <v>149.559484350631</v>
+        <v>127.2589615942235</v>
       </c>
       <c r="K74" t="n">
-        <v>3.931914881657204</v>
+        <v>3.908571523927741</v>
       </c>
       <c r="L74" t="n">
-        <v>74.74969181130409</v>
+        <v>64.69040453528206</v>
       </c>
       <c r="M74" t="n">
-        <v>-1.17835795879364</v>
+        <v>-0.793929398059845</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.9226851463317871</v>
+        <v>-1.109172344207764</v>
       </c>
       <c r="O74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>237.0000083539634</v>
+        <v>179.0000079162419</v>
       </c>
       <c r="B75" t="n">
-        <v>95.00000092387202</v>
+        <v>77.99999709427368</v>
       </c>
       <c r="C75" t="n">
-        <v>142.0000033974646</v>
+        <v>101.0000033639371</v>
       </c>
       <c r="D75" t="n">
-        <v>6.195300161817541</v>
+        <v>5.412300400037124</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.499999804422263</v>
+        <v>-0.4999995157122684</v>
       </c>
       <c r="G75" t="n">
-        <v>2.500000260770317</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H75" t="n">
-        <v>24.2467318364662</v>
+        <v>20.9663478971001</v>
       </c>
       <c r="I75" t="n">
-        <v>38.16738745544788</v>
+        <v>33.52769364492718</v>
       </c>
       <c r="J75" t="n">
-        <v>148.1888633821487</v>
+        <v>129.20376707227</v>
       </c>
       <c r="K75" t="n">
-        <v>3.932489484418155</v>
+        <v>3.910614569601031</v>
       </c>
       <c r="L75" t="n">
-        <v>75.24619821669131</v>
+        <v>65.33292071504374</v>
       </c>
       <c r="M75" t="n">
-        <v>-1.397788047790527</v>
+        <v>-1.225271940231323</v>
       </c>
       <c r="N75" t="n">
-        <v>-1.32829737663269</v>
+        <v>-1.120670318603516</v>
       </c>
       <c r="O75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>245.0000077728181</v>
+        <v>189.0000012032688</v>
       </c>
       <c r="B76" t="n">
-        <v>97.99999815225596</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C76" t="n">
-        <v>146.9999956190588</v>
+        <v>104.9999980442226</v>
       </c>
       <c r="D76" t="n">
-        <v>7.258699867519065</v>
+        <v>7.694299941412087</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4999999608844526</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4999998137354879</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H76" t="n">
-        <v>24.76323453536913</v>
+        <v>21.95583445727331</v>
       </c>
       <c r="I76" t="n">
-        <v>36.37446892215602</v>
+        <v>30.28270804919357</v>
       </c>
       <c r="J76" t="n">
-        <v>141.3602422363011</v>
+        <v>116.988794967474</v>
       </c>
       <c r="K76" t="n">
-        <v>3.934693897945085</v>
+        <v>3.915344022653726</v>
       </c>
       <c r="L76" t="n">
-        <v>76.8148335058748</v>
+        <v>68.39654377196021</v>
       </c>
       <c r="M76" t="n">
-        <v>-1.691265821456909</v>
+        <v>-1.357554078102112</v>
       </c>
       <c r="N76" t="n">
-        <v>-1.769757509231567</v>
+        <v>-1.577178955078125</v>
       </c>
       <c r="O76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>261.0000066105275</v>
+        <v>189.0000012032688</v>
       </c>
       <c r="B77" t="n">
-        <v>104</v>
+        <v>82.99999738484631</v>
       </c>
       <c r="C77" t="n">
-        <v>157.0000029504298</v>
+        <v>106.0000042244791</v>
       </c>
       <c r="D77" t="n">
-        <v>8.648299903814589</v>
+        <v>7.268299792789509</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>1.499999882653358</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G77" t="n">
-        <v>1.500000037252903</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H77" t="n">
-        <v>25.78042715157619</v>
+        <v>21.82475186329288</v>
       </c>
       <c r="I77" t="n">
-        <v>35.36453724556268</v>
+        <v>30.78659747593596</v>
       </c>
       <c r="J77" t="n">
-        <v>137.6705608151107</v>
+        <v>118.900463665234</v>
       </c>
       <c r="K77" t="n">
-        <v>3.938697380225186</v>
+        <v>3.915344022653726</v>
       </c>
       <c r="L77" t="n">
-        <v>79.89976167846</v>
+        <v>67.97821744939873</v>
       </c>
       <c r="M77" t="n">
-        <v>-1.625663757324219</v>
+        <v>-1.454591155052185</v>
       </c>
       <c r="N77" t="n">
-        <v>-2.306724786758423</v>
+        <v>-1.803360819816589</v>
       </c>
       <c r="O77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>272.9999964404852</v>
+        <v>186.9999993033707</v>
       </c>
       <c r="B78" t="n">
-        <v>110.000001847744</v>
+        <v>81.00000222772351</v>
       </c>
       <c r="C78" t="n">
-        <v>163.0000027716159</v>
+        <v>106.0000042244791</v>
       </c>
       <c r="D78" t="n">
-        <v>11.37530082814513</v>
+        <v>5.655300228770333</v>
       </c>
       <c r="E78" t="n">
-        <v>3.000000096857544</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>-6.500000117346643</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G78" t="n">
-        <v>4.500000111758707</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H78" t="n">
-        <v>26.71304991251757</v>
+        <v>21.52200686814558</v>
       </c>
       <c r="I78" t="n">
-        <v>32.6145394900018</v>
+        <v>34.06098552035559</v>
       </c>
       <c r="J78" t="n">
-        <v>127.1443688720216</v>
+        <v>131.4510388063529</v>
       </c>
       <c r="K78" t="n">
-        <v>3.94139207980358</v>
+        <v>3.914438541114433</v>
       </c>
       <c r="L78" t="n">
-        <v>82.74715217778193</v>
+        <v>67.03096550700252</v>
       </c>
       <c r="M78" t="n">
-        <v>-2.299834728240967</v>
+        <v>-1.135303020477295</v>
       </c>
       <c r="N78" t="n">
-        <v>-2.468871116638184</v>
+        <v>-1.52344274520874</v>
       </c>
       <c r="O78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>217.0000005085021</v>
+        <v>193.0000050030648</v>
       </c>
       <c r="B79" t="n">
-        <v>88</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C79" t="n">
-        <v>128.9999961555005</v>
+        <v>107.9999965578318</v>
       </c>
       <c r="D79" t="n">
-        <v>9.16129937518712</v>
+        <v>7.581299580061484</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>4.500000273808832</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G79" t="n">
-        <v>4.500000111758707</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H79" t="n">
-        <v>22.99594753872401</v>
+        <v>22.16336369725472</v>
       </c>
       <c r="I79" t="n">
-        <v>29.07395460390741</v>
+        <v>30.87074194731234</v>
       </c>
       <c r="J79" t="n">
-        <v>112.6003706987284</v>
+        <v>119.3214380278101</v>
       </c>
       <c r="K79" t="n">
-        <v>3.926267535826209</v>
+        <v>3.91709850545484</v>
       </c>
       <c r="L79" t="n">
-        <v>71.44971796782428</v>
+        <v>69.02008478909949</v>
       </c>
       <c r="M79" t="n">
-        <v>-1.430150747299194</v>
+        <v>-1.430397510528564</v>
       </c>
       <c r="N79" t="n">
-        <v>-1.417004466056824</v>
+        <v>-1.351458668708801</v>
       </c>
       <c r="O79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>215.0000053029507</v>
+        <v>196.9999925903976</v>
       </c>
       <c r="B80" t="n">
-        <v>85.00000277161607</v>
+        <v>87.00000009685755</v>
       </c>
       <c r="C80" t="n">
-        <v>130.0000037550925</v>
+        <v>109.9999989047647</v>
       </c>
       <c r="D80" t="n">
-        <v>8.178300166479561</v>
+        <v>7.884300193368817</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.499999960884453</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.500000111758707</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H80" t="n">
-        <v>22.56572128960309</v>
+        <v>22.49938684712546</v>
       </c>
       <c r="I80" t="n">
-        <v>29.72264065564957</v>
+        <v>30.98401499394228</v>
       </c>
       <c r="J80" t="n">
-        <v>115.0081366992521</v>
+        <v>119.8513422027427</v>
       </c>
       <c r="K80" t="n">
-        <v>3.925581447638269</v>
+        <v>3.918781874452045</v>
       </c>
       <c r="L80" t="n">
-        <v>70.09920508570849</v>
+        <v>70.05314022093555</v>
       </c>
       <c r="M80" t="n">
-        <v>-1.603685021400452</v>
+        <v>-1.003310561180115</v>
       </c>
       <c r="N80" t="n">
-        <v>-1.149544835090637</v>
+        <v>-1.281657934188843</v>
       </c>
       <c r="O80" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>220.999990919605</v>
+        <v>196.9999925903976</v>
       </c>
       <c r="B81" t="n">
-        <v>88.99999907612798</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C81" t="n">
-        <v>131.9999960660936</v>
+        <v>110.999995071441</v>
       </c>
       <c r="D81" t="n">
-        <v>7.780300195361336</v>
+        <v>7.410300054952082</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.499999960884453</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.500000111758707</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H81" t="n">
-        <v>23.1967452003781</v>
+        <v>22.36970434960282</v>
       </c>
       <c r="I81" t="n">
-        <v>31.90743102302607</v>
+        <v>31.59225019845616</v>
       </c>
       <c r="J81" t="n">
-        <v>123.627421511293</v>
+        <v>122.170661924496</v>
       </c>
       <c r="K81" t="n">
-        <v>3.927601925824873</v>
+        <v>3.918781874452045</v>
       </c>
       <c r="L81" t="n">
-        <v>72.05254606904445</v>
+        <v>69.63983921963236</v>
       </c>
       <c r="M81" t="n">
-        <v>-1.667094111442566</v>
+        <v>-1.219206690788269</v>
       </c>
       <c r="N81" t="n">
-        <v>-1.093844175338745</v>
+        <v>-1.329877376556396</v>
       </c>
       <c r="O81" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>226.9999951329083</v>
+        <v>202.9999982900918</v>
       </c>
       <c r="B82" t="n">
-        <v>93.00000277161607</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C82" t="n">
-        <v>133.9999998211861</v>
+        <v>117.0000021122396</v>
       </c>
       <c r="D82" t="n">
-        <v>7.815300359669078</v>
+        <v>6.681299930887312</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.499999804422263</v>
+        <v>6.500000856816756</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.500000111758707</v>
+        <v>6.499999687075624</v>
       </c>
       <c r="H82" t="n">
-        <v>23.81839156113925</v>
+        <v>22.48184310973723</v>
       </c>
       <c r="I82" t="n">
-        <v>33.26673088665797</v>
+        <v>33.27115966711187</v>
       </c>
       <c r="J82" t="n">
-        <v>129.0529903611569</v>
+        <v>128.7025879761067</v>
       </c>
       <c r="K82" t="n">
-        <v>3.929515290562017</v>
+        <v>3.92118202951608</v>
       </c>
       <c r="L82" t="n">
-        <v>73.9740284344701</v>
+        <v>69.94087989310636</v>
       </c>
       <c r="M82" t="n">
-        <v>-1.048638105392456</v>
+        <v>-1.477385282516479</v>
       </c>
       <c r="N82" t="n">
-        <v>-1.366930723190308</v>
+        <v>-1.496372818946838</v>
       </c>
       <c r="O82" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>224.9999999273568</v>
+        <v>202.9999982900918</v>
       </c>
       <c r="B83" t="n">
-        <v>89.99999815225596</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C83" t="n">
-        <v>134.9999959766866</v>
+        <v>117.0000021122396</v>
       </c>
       <c r="D83" t="n">
-        <v>6.921299775438506</v>
+        <v>6.629299888788212</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1.499999882653358</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G83" t="n">
-        <v>2.500000260770317</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H83" t="n">
-        <v>23.39654132773209</v>
+        <v>22.48184310973723</v>
       </c>
       <c r="I83" t="n">
-        <v>34.20965151699295</v>
+        <v>33.40139276575263</v>
       </c>
       <c r="J83" t="n">
-        <v>132.6031013965309</v>
+        <v>129.2063748780559</v>
       </c>
       <c r="K83" t="n">
-        <v>3.928888848638937</v>
+        <v>3.92118202951608</v>
       </c>
       <c r="L83" t="n">
-        <v>72.65217618340492</v>
+        <v>69.94087989310636</v>
       </c>
       <c r="M83" t="n">
-        <v>-1.982034206390381</v>
+        <v>-1.5325528383255</v>
       </c>
       <c r="N83" t="n">
-        <v>-1.510112881660461</v>
+        <v>-1.538449883460999</v>
       </c>
       <c r="O83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>226.9999951329083</v>
+        <v>207.0000020898879</v>
       </c>
       <c r="B84" t="n">
-        <v>89.99999815225596</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C84" t="n">
-        <v>136.9999997317791</v>
+        <v>122.999999139458</v>
       </c>
       <c r="D84" t="n">
-        <v>6.146800155051928</v>
+        <v>5.216300069622981</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4999999608844526</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G84" t="n">
-        <v>1.500000037252903</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H84" t="n">
-        <v>23.43107682143346</v>
+        <v>22.29126446283189</v>
       </c>
       <c r="I84" t="n">
-        <v>36.30094886846099</v>
+        <v>36.77884013659123</v>
       </c>
       <c r="J84" t="n">
-        <v>140.7205869387863</v>
+        <v>142.2182767449639</v>
       </c>
       <c r="K84" t="n">
-        <v>3.929515290562017</v>
+        <v>3.922705456636625</v>
       </c>
       <c r="L84" t="n">
-        <v>72.7444631122612</v>
+        <v>69.29725870572904</v>
       </c>
       <c r="M84" t="n">
-        <v>-2.126488924026489</v>
+        <v>-1.933501482009888</v>
       </c>
       <c r="N84" t="n">
-        <v>-1.506477355957031</v>
+        <v>-1.902967691421509</v>
       </c>
       <c r="O84" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>237.0000083539634</v>
+        <v>211.0000058896839</v>
       </c>
       <c r="B85" t="n">
-        <v>93.00000277161607</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C85" t="n">
-        <v>143.9999957084657</v>
+        <v>125.0000014863908</v>
       </c>
       <c r="D85" t="n">
-        <v>4.957500011655047</v>
+        <v>5.966300308822408</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>2.499999804422263</v>
+        <v>-0.4999995157122684</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.500000037252903</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H85" t="n">
-        <v>23.99014472809052</v>
+        <v>22.62713817712011</v>
       </c>
       <c r="I85" t="n">
-        <v>41.76875952462913</v>
+        <v>35.20836947159231</v>
       </c>
       <c r="J85" t="n">
-        <v>162.0965517528349</v>
+        <v>136.2481661759287</v>
       </c>
       <c r="K85" t="n">
-        <v>3.932489484418155</v>
+        <v>3.924170606379961</v>
       </c>
       <c r="L85" t="n">
-        <v>74.43271220379873</v>
+        <v>70.33032821409523</v>
       </c>
       <c r="M85" t="n">
-        <v>-1.762019395828247</v>
+        <v>-1.943732023239136</v>
       </c>
       <c r="N85" t="n">
-        <v>-1.849905252456665</v>
+        <v>-2.017483711242676</v>
       </c>
       <c r="O85" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>253.0000071916728</v>
+        <v>213.000007789582</v>
       </c>
       <c r="B86" t="n">
-        <v>103.000000923872</v>
+        <v>87.99999767541894</v>
       </c>
       <c r="C86" t="n">
-        <v>149.9999955296518</v>
+        <v>125.0000014863908</v>
       </c>
       <c r="D86" t="n">
-        <v>8.855299913934582</v>
+        <v>6.862299905691639</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4999999608844526</v>
+        <v>-0.4999995157122684</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.5000001117587073</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H86" t="n">
-        <v>25.52341152603728</v>
+        <v>22.92474948525549</v>
       </c>
       <c r="I86" t="n">
-        <v>34.61270829567477</v>
+        <v>33.59292577386126</v>
       </c>
       <c r="J86" t="n">
-        <v>134.6849645958528</v>
+        <v>130.078921204177</v>
       </c>
       <c r="K86" t="n">
-        <v>3.936759032759306</v>
+        <v>3.924882771333178</v>
       </c>
       <c r="L86" t="n">
-        <v>79.15338792061348</v>
+        <v>71.25913990201416</v>
       </c>
       <c r="M86" t="n">
-        <v>-1.790094137191772</v>
+        <v>-1.958006739616394</v>
       </c>
       <c r="N86" t="n">
-        <v>-1.754441142082214</v>
+        <v>-1.951674342155457</v>
       </c>
       <c r="O86" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>258.9999928083272</v>
+        <v>155.0000013299286</v>
       </c>
       <c r="B87" t="n">
-        <v>105.999998152256</v>
+        <v>71.00000164657826</v>
       </c>
       <c r="C87" t="n">
-        <v>152.9999954402448</v>
+        <v>83.9999984353781</v>
       </c>
       <c r="D87" t="n">
-        <v>9.705300135664752</v>
+        <v>5.73029977429142</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4999999608844526</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G87" t="n">
-        <v>2.500000260770317</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H87" t="n">
-        <v>25.99378883680091</v>
+        <v>19.52920061087542</v>
       </c>
       <c r="I87" t="n">
-        <v>34.02525322298107</v>
+        <v>29.65989976295187</v>
       </c>
       <c r="J87" t="n">
-        <v>132.4979263601021</v>
+        <v>113.8002033825036</v>
       </c>
       <c r="K87" t="n">
-        <v>3.938223957515621</v>
+        <v>3.896774334335003</v>
       </c>
       <c r="L87" t="n">
-        <v>80.59045105847468</v>
+        <v>60.968985225142</v>
       </c>
       <c r="M87" t="n">
-        <v>-2.338916063308716</v>
+        <v>-1.262223958969116</v>
       </c>
       <c r="N87" t="n">
-        <v>-2.098145008087158</v>
+        <v>-1.380067944526672</v>
       </c>
       <c r="O87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>253.0000071916728</v>
+        <v>157.0000032298267</v>
       </c>
       <c r="B88" t="n">
-        <v>98.99999722838393</v>
+        <v>71.99999922513965</v>
       </c>
       <c r="C88" t="n">
-        <v>154.0000030398368</v>
+        <v>85.00000461563459</v>
       </c>
       <c r="D88" t="n">
-        <v>6.739400075479224</v>
+        <v>5.885300365911339</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>3.500000352039927</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G88" t="n">
-        <v>3.499999888241293</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H88" t="n">
-        <v>25.02290347938964</v>
+        <v>19.70831639909675</v>
       </c>
       <c r="I88" t="n">
-        <v>38.13506967609997</v>
+        <v>29.67892768500786</v>
       </c>
       <c r="J88" t="n">
-        <v>148.2724841105896</v>
+        <v>113.9382700324375</v>
       </c>
       <c r="K88" t="n">
-        <v>3.936759032759306</v>
+        <v>3.898089297885969</v>
       </c>
       <c r="L88" t="n">
-        <v>77.5701570800277</v>
+        <v>61.52345974717232</v>
       </c>
       <c r="M88" t="n">
-        <v>-1.479630470275879</v>
+        <v>-1.308141231536865</v>
       </c>
       <c r="N88" t="n">
-        <v>-1.410422325134277</v>
+        <v>-1.255052924156189</v>
       </c>
       <c r="O88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>261.0000066105275</v>
+        <v>161.0000070296228</v>
       </c>
       <c r="B89" t="n">
-        <v>106.9999972283839</v>
+        <v>76.00000193715088</v>
       </c>
       <c r="C89" t="n">
-        <v>154.0000030398368</v>
+        <v>85.00000461563459</v>
       </c>
       <c r="D89" t="n">
-        <v>10.49529994577276</v>
+        <v>7.065299849240573</v>
       </c>
       <c r="E89" t="n">
-        <v>3.000000096857544</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.499999804422263</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G89" t="n">
-        <v>4.500000111758707</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H89" t="n">
-        <v>26.14961711010485</v>
+        <v>20.33345142097074</v>
       </c>
       <c r="I89" t="n">
-        <v>33.02830954607526</v>
+        <v>28.59224815696842</v>
       </c>
       <c r="J89" t="n">
-        <v>128.6465626626228</v>
+        <v>109.9672288701135</v>
       </c>
       <c r="K89" t="n">
-        <v>3.938697380225186</v>
+        <v>3.900621154687927</v>
       </c>
       <c r="L89" t="n">
-        <v>81.06624633095304</v>
+        <v>63.48783248929139</v>
       </c>
       <c r="M89" t="n">
-        <v>-2.657248497009277</v>
+        <v>-1.545967936515808</v>
       </c>
       <c r="N89" t="n">
-        <v>-2.206231117248535</v>
+        <v>-1.354822993278503</v>
       </c>
       <c r="O89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>255.0000023972243</v>
+        <v>157.0000032298267</v>
       </c>
       <c r="B90" t="n">
-        <v>98.99999722838393</v>
+        <v>71.00000164657826</v>
       </c>
       <c r="C90" t="n">
-        <v>155.9999953508378</v>
+        <v>86.00000078231095</v>
       </c>
       <c r="D90" t="n">
-        <v>6.400299824673974</v>
+        <v>5.128300194644548</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>3.500000352039927</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G90" t="n">
-        <v>3.499999888241293</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H90" t="n">
-        <v>25.05576227512094</v>
+        <v>19.57097360371307</v>
       </c>
       <c r="I90" t="n">
-        <v>39.13226848208515</v>
+        <v>31.35246018902606</v>
       </c>
       <c r="J90" t="n">
-        <v>152.1592334905262</v>
+        <v>120.314580665856</v>
       </c>
       <c r="K90" t="n">
-        <v>3.937254939924735</v>
+        <v>3.898089297885969</v>
       </c>
       <c r="L90" t="n">
-        <v>77.65770765393775</v>
+        <v>61.08242798150256</v>
       </c>
       <c r="M90" t="n">
-        <v>-1.330635190010071</v>
+        <v>-1.250969052314758</v>
       </c>
       <c r="N90" t="n">
-        <v>-1.456765055656433</v>
+        <v>-1.086039781570435</v>
       </c>
       <c r="O90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>210.9999962951989</v>
+        <v>152.9999994300306</v>
       </c>
       <c r="B91" t="n">
-        <v>83.99999630451191</v>
+        <v>66.00000135600561</v>
       </c>
       <c r="C91" t="n">
-        <v>127.0000038444995</v>
+        <v>86.9999969489873</v>
       </c>
       <c r="D91" t="n">
-        <v>9.057299510726795</v>
+        <v>3.559299930249447</v>
       </c>
       <c r="E91" t="n">
-        <v>13.00000032782554</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>12.49999964796007</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.4999999664723875</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H91" t="n">
-        <v>22.36248456804902</v>
+        <v>18.78828864718482</v>
       </c>
       <c r="I91" t="n">
-        <v>27.91128851038787</v>
+        <v>34.98336862751565</v>
       </c>
       <c r="J91" t="n">
-        <v>107.9489427128208</v>
+        <v>133.9075624452989</v>
       </c>
       <c r="K91" t="n">
-        <v>3.924170860316957</v>
+        <v>3.895424969160485</v>
       </c>
       <c r="L91" t="n">
-        <v>69.48801826527921</v>
+        <v>58.60789011508663</v>
       </c>
       <c r="M91" t="n">
-        <v>-2.060216188430786</v>
+        <v>-0.8537574410438538</v>
       </c>
       <c r="N91" t="n">
-        <v>-1.896462798118591</v>
+        <v>-1.102344751358032</v>
       </c>
       <c r="O91" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>220.999990919605</v>
+        <v>171.0000003166497</v>
       </c>
       <c r="B92" t="n">
-        <v>92.00000369548809</v>
+        <v>76.99999951571228</v>
       </c>
       <c r="C92" t="n">
-        <v>128.9999961555005</v>
+        <v>94.00000015646219</v>
       </c>
       <c r="D92" t="n">
-        <v>9.889300245733883</v>
+        <v>5.86530010438663</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>4.500000273808832</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G92" t="n">
-        <v>4.499999966472387</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H92" t="n">
-        <v>23.58446105207971</v>
+        <v>20.67337369004086</v>
       </c>
       <c r="I92" t="n">
-        <v>29.25533208386189</v>
+        <v>31.79403210317993</v>
       </c>
       <c r="J92" t="n">
-        <v>113.4366695265308</v>
+        <v>122.4154721435899</v>
       </c>
       <c r="K92" t="n">
-        <v>3.927601925824873</v>
+        <v>3.906432975239817</v>
       </c>
       <c r="L92" t="n">
-        <v>73.28429390361258</v>
+        <v>64.47479432319933</v>
       </c>
       <c r="M92" t="n">
-        <v>-1.503222465515137</v>
+        <v>-1.357512712478638</v>
       </c>
       <c r="N92" t="n">
-        <v>-1.636071920394897</v>
+        <v>-1.237661361694336</v>
       </c>
       <c r="O92" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>215.0000053029507</v>
+        <v>173.0000022165477</v>
       </c>
       <c r="B93" t="n">
-        <v>86.00000184774404</v>
+        <v>79.0000008717179</v>
       </c>
       <c r="C93" t="n">
-        <v>128.9999961555005</v>
+        <v>94.00000015646219</v>
       </c>
       <c r="D93" t="n">
-        <v>8.83889961342766</v>
+        <v>6.83730005718461</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>4.500000273808832</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G93" t="n">
-        <v>4.499999966472387</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H93" t="n">
-        <v>22.6980732999473</v>
+        <v>20.98076038428222</v>
       </c>
       <c r="I93" t="n">
-        <v>28.92673011751883</v>
+        <v>30.21236780385386</v>
       </c>
       <c r="J93" t="n">
-        <v>111.9598166115369</v>
+        <v>116.4202933061544</v>
       </c>
       <c r="K93" t="n">
-        <v>3.925581447638269</v>
+        <v>3.907514315824875</v>
       </c>
       <c r="L93" t="n">
-        <v>70.5202253605047</v>
+        <v>65.43860026503467</v>
       </c>
       <c r="M93" t="n">
-        <v>-1.418484091758728</v>
+        <v>-1.435395956039429</v>
       </c>
       <c r="N93" t="n">
-        <v>-1.587670087814331</v>
+        <v>-1.243869066238403</v>
       </c>
       <c r="O93" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>215.0000053029507</v>
+        <v>173.0000022165477</v>
       </c>
       <c r="B94" t="n">
-        <v>83.99999630451191</v>
+        <v>79.0000008717179</v>
       </c>
       <c r="C94" t="n">
-        <v>130.999999910593</v>
+        <v>94.00000015646219</v>
       </c>
       <c r="D94" t="n">
-        <v>7.526500337200421</v>
+        <v>6.897299566028451</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>4.500000273808832</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G94" t="n">
-        <v>4.499999966472387</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H94" t="n">
-        <v>22.43258947767697</v>
+        <v>20.98076038428222</v>
       </c>
       <c r="I94" t="n">
-        <v>30.6184181487893</v>
+        <v>30.08067237183972</v>
       </c>
       <c r="J94" t="n">
-        <v>118.4402483010509</v>
+        <v>115.9128201824928</v>
       </c>
       <c r="K94" t="n">
-        <v>3.925581447638269</v>
+        <v>3.907514315824875</v>
       </c>
       <c r="L94" t="n">
-        <v>69.6756461246611</v>
+        <v>65.43860026503467</v>
       </c>
       <c r="M94" t="n">
-        <v>-1.242327451705933</v>
+        <v>-1.310765147209167</v>
       </c>
       <c r="N94" t="n">
-        <v>-1.558562397956848</v>
+        <v>-1.155139684677124</v>
       </c>
       <c r="O94" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>223.0000047218054</v>
+        <v>179.0000079162419</v>
       </c>
       <c r="B95" t="n">
-        <v>89.99999815225596</v>
+        <v>79.0000008717179</v>
       </c>
       <c r="C95" t="n">
-        <v>133.0000036656855</v>
+        <v>99.99999718368059</v>
       </c>
       <c r="D95" t="n">
-        <v>7.567300053112904</v>
+        <v>5.981299707634512</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>2.499999804422263</v>
+        <v>2.000000447034829</v>
       </c>
       <c r="G95" t="n">
-        <v>3.500000033527612</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H95" t="n">
-        <v>23.36175171338742</v>
+        <v>21.10032034534563</v>
       </c>
       <c r="I95" t="n">
-        <v>32.71689127360731</v>
+        <v>32.30198942980462</v>
       </c>
       <c r="J95" t="n">
-        <v>126.8065903961098</v>
+        <v>124.5218145236431</v>
       </c>
       <c r="K95" t="n">
-        <v>3.928251164487925</v>
+        <v>3.910614569601031</v>
       </c>
       <c r="L95" t="n">
-        <v>72.55918448493264</v>
+        <v>65.76134694797733</v>
       </c>
       <c r="M95" t="n">
-        <v>-1.373160481452942</v>
+        <v>-1.157882332801819</v>
       </c>
       <c r="N95" t="n">
-        <v>-1.793193459510803</v>
+        <v>-1.113898515701294</v>
       </c>
       <c r="O95" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>220.999990919605</v>
+        <v>180.9999936036766</v>
       </c>
       <c r="B96" t="n">
-        <v>86.00000184774404</v>
+        <v>79.0000008717179</v>
       </c>
       <c r="C96" t="n">
-        <v>134.9999959766866</v>
+        <v>101.9999995306134</v>
       </c>
       <c r="D96" t="n">
-        <v>6.16229988994224</v>
+        <v>5.751299570493507</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>3.500000352039927</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G96" t="n">
-        <v>4.499999966472387</v>
+        <v>-2.500000044703482</v>
       </c>
       <c r="H96" t="n">
-        <v>22.80243716022361</v>
+        <v>21.13943108580541</v>
       </c>
       <c r="I96" t="n">
-        <v>34.64392194497332</v>
+        <v>32.94155424743303</v>
       </c>
       <c r="J96" t="n">
-        <v>134.122480378636</v>
+        <v>127.0033083931779</v>
       </c>
       <c r="K96" t="n">
-        <v>3.927601925824873</v>
+        <v>3.911602204271193</v>
       </c>
       <c r="L96" t="n">
-        <v>70.79935201927981</v>
+        <v>65.86678015869089</v>
       </c>
       <c r="M96" t="n">
-        <v>-1.575366258621216</v>
+        <v>-1.134478569030762</v>
       </c>
       <c r="N96" t="n">
-        <v>-1.689502477645874</v>
+        <v>-1.159619927406311</v>
       </c>
       <c r="O96" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>224.9999999273568</v>
+        <v>186.9999993033707</v>
       </c>
       <c r="B97" t="n">
-        <v>88.99999907612798</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C97" t="n">
-        <v>136.0000035762786</v>
+        <v>102.9999956972898</v>
       </c>
       <c r="D97" t="n">
-        <v>5.935300045835606</v>
+        <v>7.980300172957133</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.499999882653358</v>
+        <v>-3.000000074505805</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.500000100582837</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H97" t="n">
-        <v>23.26619986012465</v>
+        <v>21.91693982365596</v>
       </c>
       <c r="I97" t="n">
-        <v>36.53159841986126</v>
+        <v>29.7351194780701</v>
       </c>
       <c r="J97" t="n">
-        <v>141.5672468142509</v>
+        <v>114.8600509474933</v>
       </c>
       <c r="K97" t="n">
-        <v>3.928888848638937</v>
+        <v>3.914438541114433</v>
       </c>
       <c r="L97" t="n">
-        <v>72.2382036047687</v>
+        <v>68.29184957907876</v>
       </c>
       <c r="M97" t="n">
-        <v>-1.212278962135315</v>
+        <v>-1.757265329360962</v>
       </c>
       <c r="N97" t="n">
-        <v>-1.190271615982056</v>
+        <v>-1.395203471183777</v>
       </c>
       <c r="O97" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>234.999994551763</v>
+        <v>186.9999993033707</v>
       </c>
       <c r="B98" t="n">
-        <v>95.00000092387202</v>
+        <v>81.99999980628492</v>
       </c>
       <c r="C98" t="n">
-        <v>139.9999996423721</v>
+        <v>104.9999980442226</v>
       </c>
       <c r="D98" t="n">
-        <v>6.585300108374885</v>
+        <v>6.208299965013097</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.499999804422263</v>
+        <v>6.500000856816756</v>
       </c>
       <c r="G98" t="n">
-        <v>2.500000100582837</v>
+        <v>6.499999687075624</v>
       </c>
       <c r="H98" t="n">
-        <v>24.21250776512183</v>
+        <v>21.65445047543146</v>
       </c>
       <c r="I98" t="n">
-        <v>37.01994978084225</v>
+        <v>32.90997337428872</v>
       </c>
       <c r="J98" t="n">
-        <v>143.7233100946616</v>
+        <v>127.0481606919386</v>
       </c>
       <c r="K98" t="n">
-        <v>3.931914881657204</v>
+        <v>3.914438541114433</v>
       </c>
       <c r="L98" t="n">
-        <v>75.15484340248845</v>
+        <v>67.45388077838813</v>
       </c>
       <c r="M98" t="n">
-        <v>-1.173785805702209</v>
+        <v>-1.650803565979004</v>
       </c>
       <c r="N98" t="n">
-        <v>-1.504798412322998</v>
+        <v>-1.548443675041199</v>
       </c>
       <c r="O98" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>242.9999939706177</v>
+        <v>196.9999925903976</v>
       </c>
       <c r="B99" t="n">
-        <v>97.99999815225596</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C99" t="n">
-        <v>145.0000033080577</v>
+        <v>112.0000012516975</v>
       </c>
       <c r="D99" t="n">
-        <v>7.415300041287295</v>
+        <v>7.105299734424849</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4999999608844526</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.500000033527612</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H99" t="n">
-        <v>24.72942901567257</v>
+        <v>22.23927007614964</v>
       </c>
       <c r="I99" t="n">
-        <v>35.98833213250257</v>
+        <v>31.88803099292468</v>
       </c>
       <c r="J99" t="n">
-        <v>139.850059204129</v>
+        <v>123.2799401540434</v>
       </c>
       <c r="K99" t="n">
-        <v>3.93415645699313</v>
+        <v>3.918781874452045</v>
       </c>
       <c r="L99" t="n">
-        <v>76.72466088586651</v>
+        <v>69.2240748255555</v>
       </c>
       <c r="M99" t="n">
-        <v>-1.506309866905212</v>
+        <v>-1.442372560501099</v>
       </c>
       <c r="N99" t="n">
-        <v>-1.740398406982422</v>
+        <v>-1.367772221565247</v>
       </c>
       <c r="O99" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>247.0000029783696</v>
+        <v>198.9999944902957</v>
       </c>
       <c r="B100" t="n">
-        <v>99.99999630451191</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C100" t="n">
-        <v>146.9999956190588</v>
+        <v>114.0000035986304</v>
       </c>
       <c r="D100" t="n">
-        <v>8.305299930990749</v>
+        <v>7.022300084293878</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4999999608844526</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G100" t="n">
-        <v>0.500000234693287</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H100" t="n">
-        <v>25.04856219022721</v>
+        <v>22.27674162321959</v>
       </c>
       <c r="I100" t="n">
-        <v>34.69942859929981</v>
+        <v>32.07592826840224</v>
       </c>
       <c r="J100" t="n">
-        <v>134.9158786436286</v>
+        <v>124.0192628981187</v>
       </c>
       <c r="K100" t="n">
-        <v>3.935222594941981</v>
+        <v>3.919598014461518</v>
       </c>
       <c r="L100" t="n">
-        <v>77.70133516661845</v>
+        <v>69.32470090122784</v>
       </c>
       <c r="M100" t="n">
-        <v>-1.642878770828247</v>
+        <v>-1.560068249702454</v>
       </c>
       <c r="N100" t="n">
-        <v>-1.728562474250793</v>
+        <v>-1.738664269447327</v>
       </c>
       <c r="O100" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>258.9999928083272</v>
+        <v>200.9999963901937</v>
       </c>
       <c r="B101" t="n">
-        <v>105.999998152256</v>
+        <v>87.00000009685755</v>
       </c>
       <c r="C101" t="n">
-        <v>152.9999954402448</v>
+        <v>114.0000035986304</v>
       </c>
       <c r="D101" t="n">
-        <v>9.765299637624675</v>
+        <v>7.519299726132601</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.500000195577737</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.499999966472387</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H101" t="n">
-        <v>25.99378883680091</v>
+        <v>22.57489089945205</v>
       </c>
       <c r="I101" t="n">
-        <v>33.92056239882437</v>
+        <v>31.72711150684566</v>
       </c>
       <c r="J101" t="n">
-        <v>132.0902420204459</v>
+        <v>122.7510751799128</v>
       </c>
       <c r="K101" t="n">
-        <v>3.938223957515621</v>
+        <v>3.920397980573352</v>
       </c>
       <c r="L101" t="n">
-        <v>80.59045105847468</v>
+        <v>70.25590559926978</v>
       </c>
       <c r="M101" t="n">
-        <v>-2.758250951766968</v>
+        <v>-1.335082530975342</v>
       </c>
       <c r="N101" t="n">
-        <v>-2.403866291046143</v>
+        <v>-1.406163215637207</v>
       </c>
       <c r="O101" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>280.9999958593399</v>
+        <v>198.9999944902957</v>
       </c>
       <c r="B102" t="n">
-        <v>112</v>
+        <v>84.00000116229053</v>
       </c>
       <c r="C102" t="n">
-        <v>169.000002592802</v>
+        <v>114.9999997653067</v>
       </c>
       <c r="D102" t="n">
-        <v>10.45530027779948</v>
+        <v>6.075299980002928</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.499999882653358</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G102" t="n">
-        <v>5.500000435858961</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H102" t="n">
-        <v>27.08486827573927</v>
+        <v>22.14531417789487</v>
       </c>
       <c r="I102" t="n">
-        <v>34.63775596823161</v>
+        <v>34.07967424137138</v>
       </c>
       <c r="J102" t="n">
-        <v>135.1049157501708</v>
+        <v>131.7288093376726</v>
       </c>
       <c r="K102" t="n">
-        <v>3.943060301514992</v>
+        <v>3.919598014461518</v>
       </c>
       <c r="L102" t="n">
-        <v>83.85590634710638</v>
+        <v>68.90581855572601</v>
       </c>
       <c r="M102" t="n">
-        <v>-2.127831935882568</v>
+        <v>-1.798832774162292</v>
       </c>
       <c r="N102" t="n">
-        <v>-2.47345495223999</v>
+        <v>-1.647610664367676</v>
       </c>
       <c r="O102" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>215.0000053029507</v>
+        <v>213.000007789582</v>
       </c>
       <c r="B103" t="n">
-        <v>88</v>
+        <v>87.00000009685755</v>
       </c>
       <c r="C103" t="n">
-        <v>127.0000038444995</v>
+        <v>125.9999976530672</v>
       </c>
       <c r="D103" t="n">
-        <v>8.864300112127241</v>
+        <v>6.905300308503476</v>
       </c>
       <c r="E103" t="n">
-        <v>4.999999903142456</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>4.500000273808832</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.5000001117587073</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H103" t="n">
-        <v>22.96048525208822</v>
+        <v>22.79412209504951</v>
       </c>
       <c r="I103" t="n">
-        <v>29.55700614065143</v>
+        <v>33.10761953892214</v>
       </c>
       <c r="J103" t="n">
-        <v>114.4611815703385</v>
+        <v>128.1654486106855</v>
       </c>
       <c r="K103" t="n">
-        <v>3.925581447638269</v>
+        <v>3.924882771333178</v>
       </c>
       <c r="L103" t="n">
-        <v>71.35480899286978</v>
+        <v>70.84362888547973</v>
       </c>
       <c r="M103" t="n">
-        <v>-2.317272424697876</v>
+        <v>-2.069138288497925</v>
       </c>
       <c r="N103" t="n">
-        <v>-2.216726303100586</v>
+        <v>-1.75484573841095</v>
       </c>
       <c r="O103" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>212.9999915007503</v>
+        <v>148.9999950826169</v>
       </c>
       <c r="B104" t="n">
-        <v>86.00000184774404</v>
+        <v>64.99999757856139</v>
       </c>
       <c r="C104" t="n">
-        <v>127.0000038444995</v>
+        <v>83.9999984353781</v>
       </c>
       <c r="D104" t="n">
-        <v>8.245400491877113</v>
+        <v>4.078299859765348</v>
       </c>
       <c r="E104" t="n">
-        <v>4.999999903142456</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
-        <v>4.500000273808832</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.5000001117587073</v>
+        <v>2.500000044703482</v>
       </c>
       <c r="H104" t="n">
-        <v>22.66274554776974</v>
+        <v>18.56326699002571</v>
       </c>
       <c r="I104" t="n">
-        <v>29.94970768022947</v>
+        <v>32.18650026971194</v>
       </c>
       <c r="J104" t="n">
-        <v>115.9088903978523</v>
+        <v>123.0982368742114</v>
       </c>
       <c r="K104" t="n">
-        <v>3.924882555801852</v>
+        <v>3.892617345702484</v>
       </c>
       <c r="L104" t="n">
-        <v>70.42566498127422</v>
+        <v>57.92493724944387</v>
       </c>
       <c r="M104" t="n">
-        <v>-2.318107604980469</v>
+        <v>-1.272807598114014</v>
       </c>
       <c r="N104" t="n">
-        <v>-2.197427749633789</v>
+        <v>-1.189352869987488</v>
       </c>
       <c r="O104" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>220.999990919605</v>
+        <v>155.0000049173831</v>
       </c>
       <c r="B105" t="n">
-        <v>88</v>
+        <v>71.00000164657826</v>
       </c>
       <c r="C105" t="n">
-        <v>133.0000036656855</v>
+        <v>83.9999984353781</v>
       </c>
       <c r="D105" t="n">
-        <v>6.880299933833443</v>
+        <v>5.803299612592606</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>2.499999804422263</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G105" t="n">
-        <v>4.500000111758707</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H105" t="n">
-        <v>23.06605743110968</v>
+        <v>19.52920032457468</v>
       </c>
       <c r="I105" t="n">
-        <v>33.54895295910203</v>
+        <v>29.47276129276426</v>
       </c>
       <c r="J105" t="n">
-        <v>129.9536441942374</v>
+        <v>113.0821842548671</v>
       </c>
       <c r="K105" t="n">
-        <v>3.927601925824873</v>
+        <v>3.896774409286723</v>
       </c>
       <c r="L105" t="n">
-        <v>71.63724731102329</v>
+        <v>60.9689836161542</v>
       </c>
       <c r="M105" t="n">
-        <v>-1.309873342514038</v>
+        <v>-1.184494018554688</v>
       </c>
       <c r="N105" t="n">
-        <v>-1.659602642059326</v>
+        <v>-1.212665557861328</v>
       </c>
       <c r="O105" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>218.9999957140536</v>
+        <v>153.0000068843363</v>
       </c>
       <c r="B106" t="n">
-        <v>85.00000277161607</v>
+        <v>68.00000271201124</v>
       </c>
       <c r="C106" t="n">
-        <v>133.9999998211861</v>
+        <v>85.00000461563459</v>
       </c>
       <c r="D106" t="n">
-        <v>6.342299760315371</v>
+        <v>4.802300077915227</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-4.499999960884453</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G106" t="n">
-        <v>-4.500000111758707</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H106" t="n">
-        <v>22.63515352693994</v>
+        <v>19.07083546069547</v>
       </c>
       <c r="I106" t="n">
-        <v>33.75169053164264</v>
+        <v>31.0301789992156</v>
       </c>
       <c r="J106" t="n">
-        <v>130.6206543220054</v>
+        <v>118.8849050645491</v>
       </c>
       <c r="K106" t="n">
-        <v>3.926940820365671</v>
+        <v>3.895424783568743</v>
       </c>
       <c r="L106" t="n">
-        <v>70.28492324677605</v>
+        <v>59.51659627930865</v>
       </c>
       <c r="M106" t="n">
-        <v>-1.033836960792542</v>
+        <v>-1.064898729324341</v>
       </c>
       <c r="N106" t="n">
-        <v>-1.068633317947388</v>
+        <v>-1.201416611671448</v>
       </c>
       <c r="O106" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>231.0000041406601</v>
+        <v>155.0000049173831</v>
       </c>
       <c r="B107" t="n">
-        <v>93.00000277161607</v>
+        <v>69.99999786913403</v>
       </c>
       <c r="C107" t="n">
-        <v>137.9999958872796</v>
+        <v>85.00000461563459</v>
       </c>
       <c r="D107" t="n">
-        <v>6.364299941565572</v>
+        <v>5.338300070260845</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>2.499999804422263</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G107" t="n">
-        <v>-2.499999962747097</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H107" t="n">
-        <v>23.88783625537038</v>
+        <v>19.39118314764501</v>
       </c>
       <c r="I107" t="n">
-        <v>36.86443681528695</v>
+        <v>30.29678614866271</v>
       </c>
       <c r="J107" t="n">
-        <v>143.0319411022293</v>
+        <v>116.1956984837916</v>
       </c>
       <c r="K107" t="n">
-        <v>3.930735696860819</v>
+        <v>3.896774409286723</v>
       </c>
       <c r="L107" t="n">
-        <v>74.15957229767565</v>
+        <v>60.52556607009575</v>
       </c>
       <c r="M107" t="n">
-        <v>-0.9250583052635193</v>
+        <v>-1.104019999504089</v>
       </c>
       <c r="N107" t="n">
-        <v>-1.172353744506836</v>
+        <v>-1.208299517631531</v>
       </c>
       <c r="O107" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>237.0000083539634</v>
+        <v>159.0000009834766</v>
       </c>
       <c r="B108" t="n">
-        <v>96</v>
+        <v>74.00000058114526</v>
       </c>
       <c r="C108" t="n">
-        <v>140.9999957978727</v>
+        <v>85.00000461563459</v>
       </c>
       <c r="D108" t="n">
-        <v>6.775299895741337</v>
+        <v>6.445300034221465</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2.499999804422263</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G108" t="n">
-        <v>2.500000260770317</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H108" t="n">
-        <v>24.37401139945967</v>
+        <v>20.02236465418209</v>
       </c>
       <c r="I108" t="n">
-        <v>36.88136109219901</v>
+        <v>29.14809313267079</v>
       </c>
       <c r="J108" t="n">
-        <v>143.2278106747398</v>
+        <v>112.0051996804274</v>
       </c>
       <c r="K108" t="n">
-        <v>3.932489484418155</v>
+        <v>3.899371129492149</v>
       </c>
       <c r="L108" t="n">
-        <v>75.64967503276669</v>
+        <v>62.51074036106821</v>
       </c>
       <c r="M108" t="n">
-        <v>-1.328770279884338</v>
+        <v>-1.458392858505249</v>
       </c>
       <c r="N108" t="n">
-        <v>-1.140122294425964</v>
+        <v>-1.215829133987427</v>
       </c>
       <c r="O108" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>239.0000035595148</v>
+        <v>166.9999931156637</v>
       </c>
       <c r="B109" t="n">
-        <v>94.00000184774404</v>
+        <v>76.99999951571228</v>
       </c>
       <c r="C109" t="n">
-        <v>145.0000033080577</v>
+        <v>89.9999954625965</v>
       </c>
       <c r="D109" t="n">
-        <v>5.244699938245304</v>
+        <v>6.505300180930448</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4999999608844526</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4999998137354879</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H109" t="n">
-        <v>24.15258262949934</v>
+        <v>20.59197954085447</v>
       </c>
       <c r="I109" t="n">
-        <v>41.04568941062904</v>
+        <v>30.1895785191519</v>
       </c>
       <c r="J109" t="n">
-        <v>159.3391482459428</v>
+        <v>116.2045611019511</v>
       </c>
       <c r="K109" t="n">
-        <v>3.93305440637172</v>
+        <v>3.904191818474972</v>
       </c>
       <c r="L109" t="n">
-        <v>74.93076455544039</v>
+        <v>64.25462772732595</v>
       </c>
       <c r="M109" t="n">
-        <v>-1.285404205322266</v>
+        <v>-1.340016841888428</v>
       </c>
       <c r="N109" t="n">
-        <v>-1.233868360519409</v>
+        <v>-1.218727588653564</v>
       </c>
       <c r="O109" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>247.0000029783696</v>
+        <v>171.0000049173831</v>
       </c>
       <c r="B110" t="n">
-        <v>101.0000027716161</v>
+        <v>77.99999709427368</v>
       </c>
       <c r="C110" t="n">
-        <v>145.9999994635582</v>
+        <v>93.00000398978584</v>
       </c>
       <c r="D110" t="n">
-        <v>8.765299751332456</v>
+        <v>6.605300212823704</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>-3.500000039115547</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G110" t="n">
-        <v>3.499999888241293</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H110" t="n">
-        <v>25.17349487433835</v>
+        <v>20.80718349410113</v>
       </c>
       <c r="I110" t="n">
-        <v>34.11441762030763</v>
+        <v>30.34927436888584</v>
       </c>
       <c r="J110" t="n">
-        <v>132.66807223918</v>
+        <v>116.8927277159863</v>
       </c>
       <c r="K110" t="n">
-        <v>3.935222594941981</v>
+        <v>3.906432752851665</v>
       </c>
       <c r="L110" t="n">
-        <v>78.0967639683692</v>
+        <v>64.90320027563425</v>
       </c>
       <c r="M110" t="n">
-        <v>-1.988296508789062</v>
+        <v>-1.237109184265137</v>
       </c>
       <c r="N110" t="n">
-        <v>-1.794334411621094</v>
+        <v>-1.226724624633789</v>
       </c>
       <c r="O110" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>242.9999939706177</v>
+        <v>178.9999970495702</v>
       </c>
       <c r="B111" t="n">
-        <v>96</v>
+        <v>79.99999845027929</v>
       </c>
       <c r="C111" t="n">
-        <v>146.9999956190588</v>
+        <v>99.00000101700424</v>
       </c>
       <c r="D111" t="n">
-        <v>6.16900000716359</v>
+        <v>6.360300039005454</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>2.499999804422263</v>
+        <v>-3.500000186264512</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4999998137354879</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H111" t="n">
-        <v>24.47578671710463</v>
+        <v>21.23344532375413</v>
       </c>
       <c r="I111" t="n">
-        <v>38.65127512951084</v>
+        <v>31.7213149379584</v>
       </c>
       <c r="J111" t="n">
-        <v>150.1330453184007</v>
+        <v>122.3230518986899</v>
       </c>
       <c r="K111" t="n">
-        <v>3.93415645699313</v>
+        <v>3.910614404260972</v>
       </c>
       <c r="L111" t="n">
-        <v>75.92123867996366</v>
+        <v>66.18699060021279</v>
       </c>
       <c r="M111" t="n">
-        <v>-2.390118598937988</v>
+        <v>-1.008803367614746</v>
       </c>
       <c r="N111" t="n">
-        <v>-1.856505513191223</v>
+        <v>-1.281261324882507</v>
       </c>
       <c r="O111" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>245.0000077728181</v>
+        <v>182.9999931156637</v>
       </c>
       <c r="B112" t="n">
-        <v>96</v>
+        <v>81.00000222772351</v>
       </c>
       <c r="C112" t="n">
-        <v>148.9999993741513</v>
+        <v>101.9999995306134</v>
       </c>
       <c r="D112" t="n">
-        <v>5.624699967809327</v>
+        <v>5.977300293194713</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>3.500000352039927</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G112" t="n">
-        <v>2.500000260770317</v>
+        <v>1.999999821186071</v>
       </c>
       <c r="H112" t="n">
-        <v>24.50924593514022</v>
+        <v>21.44458753487354</v>
       </c>
       <c r="I112" t="n">
-        <v>40.47823517139274</v>
+        <v>33.13084350347563</v>
       </c>
       <c r="J112" t="n">
-        <v>157.2402246870165</v>
+        <v>127.8308063449152</v>
       </c>
       <c r="K112" t="n">
-        <v>3.934693897945085</v>
+        <v>3.912568398719122</v>
       </c>
       <c r="L112" t="n">
-        <v>76.01046402898271</v>
+        <v>66.82248078030599</v>
       </c>
       <c r="M112" t="n">
-        <v>-1.960453510284424</v>
+        <v>-1.374495983123779</v>
       </c>
       <c r="N112" t="n">
-        <v>-1.437143325805664</v>
+        <v>-1.349400639533997</v>
       </c>
       <c r="O112" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>253.0000071916728</v>
+        <v>187.0000049173831</v>
       </c>
       <c r="B113" t="n">
-        <v>99.99999630451191</v>
+        <v>82.99999738484631</v>
       </c>
       <c r="C113" t="n">
-        <v>152.9999954402448</v>
+        <v>104.0000018775463</v>
       </c>
       <c r="D113" t="n">
-        <v>7.053199890431183</v>
+        <v>7.779299936628098</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4999999608844526</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G113" t="n">
-        <v>2.500000260770317</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H113" t="n">
-        <v>25.14896475812254</v>
+        <v>21.78609069856494</v>
       </c>
       <c r="I113" t="n">
-        <v>37.6536346715059</v>
+        <v>29.75828062761615</v>
       </c>
       <c r="J113" t="n">
-        <v>146.4307808417363</v>
+        <v>114.9157364244247</v>
       </c>
       <c r="K113" t="n">
-        <v>3.936759032759306</v>
+        <v>3.91443854869379</v>
       </c>
       <c r="L113" t="n">
-        <v>77.9689809010039</v>
+        <v>67.87415510887585</v>
       </c>
       <c r="M113" t="n">
-        <v>-2.261648893356323</v>
+        <v>-1.81299102306366</v>
       </c>
       <c r="N113" t="n">
-        <v>-2.237480163574219</v>
+        <v>-1.698420524597168</v>
       </c>
       <c r="O113" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>250.9999933894725</v>
+        <v>191.0000009834766</v>
       </c>
       <c r="B114" t="n">
-        <v>97.99999815225596</v>
+        <v>84.99999874085192</v>
       </c>
       <c r="C114" t="n">
-        <v>152.9999954402448</v>
+        <v>106.0000042244791</v>
       </c>
       <c r="D114" t="n">
-        <v>6.177299765432221</v>
+        <v>7.714300202936795</v>
       </c>
       <c r="E114" t="n">
-        <v>4.999999903142456</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4999999608844526</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G114" t="n">
-        <v>-4.500000111758707</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H114" t="n">
-        <v>24.86329329298234</v>
+        <v>22.12492022392006</v>
       </c>
       <c r="I114" t="n">
-        <v>39.42999768588277</v>
+        <v>30.60346911582381</v>
       </c>
       <c r="J114" t="n">
-        <v>153.2651775434695</v>
+        <v>118.2752667375245</v>
       </c>
       <c r="K114" t="n">
-        <v>3.936255006207037</v>
+        <v>3.916230509384742</v>
       </c>
       <c r="L114" t="n">
-        <v>77.0815850164464</v>
+        <v>68.91669343230672</v>
       </c>
       <c r="M114" t="n">
-        <v>-2.070047378540039</v>
+        <v>-1.088167548179626</v>
       </c>
       <c r="N114" t="n">
-        <v>-2.275180339813232</v>
+        <v>-1.524013519287109</v>
       </c>
       <c r="O114" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>218.9999957140536</v>
+        <v>191.0000009834766</v>
       </c>
       <c r="B115" t="n">
-        <v>89.99999815225596</v>
+        <v>81.99999980628492</v>
       </c>
       <c r="C115" t="n">
-        <v>128.9999961555005</v>
+        <v>109.0000027380883</v>
       </c>
       <c r="D115" t="n">
-        <v>9.511300108602301</v>
+        <v>5.40330012288472</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>4.500000273808832</v>
+        <v>6.500000856816756</v>
       </c>
       <c r="G115" t="n">
-        <v>4.500000111758707</v>
+        <v>6.499999687075624</v>
       </c>
       <c r="H115" t="n">
-        <v>23.29138271760073</v>
+        <v>21.73097226527598</v>
       </c>
       <c r="I115" t="n">
-        <v>29.1825045233823</v>
+        <v>35.27640566245885</v>
       </c>
       <c r="J115" t="n">
-        <v>113.088871210149</v>
+        <v>136.2148725351437</v>
       </c>
       <c r="K115" t="n">
-        <v>3.926940820365671</v>
+        <v>3.916230509384742</v>
       </c>
       <c r="L115" t="n">
-        <v>72.3709806847893</v>
+        <v>67.65975234607247</v>
       </c>
       <c r="M115" t="n">
-        <v>-1.450516700744629</v>
+        <v>-1.527228951454163</v>
       </c>
       <c r="N115" t="n">
-        <v>-1.460176706314087</v>
+        <v>-1.567331910133362</v>
       </c>
       <c r="O115" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>229.0000089351087</v>
+        <v>194.9999970495702</v>
       </c>
       <c r="B116" t="n">
-        <v>93.00000277161607</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C116" t="n">
-        <v>136.0000035762786</v>
+        <v>109.0000027380883</v>
       </c>
       <c r="D116" t="n">
-        <v>7.015299722905511</v>
+        <v>7.694299941412087</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>2.499999804422263</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G116" t="n">
-        <v>-2.499999962747097</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H116" t="n">
-        <v>23.85324096857647</v>
+        <v>22.33169298517533</v>
       </c>
       <c r="I116" t="n">
-        <v>35.11234322257774</v>
+        <v>31.0037263432793</v>
       </c>
       <c r="J116" t="n">
-        <v>136.2234178922082</v>
+        <v>119.8820378415229</v>
       </c>
       <c r="K116" t="n">
-        <v>3.930130802541274</v>
+        <v>3.917948706600491</v>
       </c>
       <c r="L116" t="n">
-        <v>74.06715653996483</v>
+        <v>69.5376973167896</v>
       </c>
       <c r="M116" t="n">
-        <v>-1.134659647941589</v>
+        <v>-1.231970906257629</v>
       </c>
       <c r="N116" t="n">
-        <v>-1.187455892562866</v>
+        <v>-1.324816465377808</v>
       </c>
       <c r="O116" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>231.0000041406601</v>
+        <v>205.0000029504298</v>
       </c>
       <c r="B117" t="n">
-        <v>94.00000184774404</v>
+        <v>89.00000145286316</v>
       </c>
       <c r="C117" t="n">
-        <v>136.9999997317791</v>
+        <v>115.9999959319831</v>
       </c>
       <c r="D117" t="n">
-        <v>6.83930009222838</v>
+        <v>7.895300177741122</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>1.499999882653358</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G117" t="n">
-        <v>1.500000037252903</v>
+        <v>6.499999687075624</v>
       </c>
       <c r="H117" t="n">
-        <v>24.01592053373432</v>
+        <v>22.90800678324611</v>
       </c>
       <c r="I117" t="n">
-        <v>35.94363737689252</v>
+        <v>31.67420116977248</v>
       </c>
       <c r="J117" t="n">
-        <v>139.4918831958319</v>
+        <v>122.635449385031</v>
       </c>
       <c r="K117" t="n">
-        <v>3.930735696860819</v>
+        <v>3.921951358643303</v>
       </c>
       <c r="L117" t="n">
-        <v>74.56592881755833</v>
+        <v>71.2792238499151</v>
       </c>
       <c r="M117" t="n">
-        <v>-1.121260404586792</v>
+        <v>-1.385691404342651</v>
       </c>
       <c r="N117" t="n">
-        <v>-1.459582567214966</v>
+        <v>-1.431176424026489</v>
       </c>
       <c r="O117" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>239.0000035595148</v>
+        <v>207.0000009834766</v>
       </c>
       <c r="B118" t="n">
-        <v>95.00000092387202</v>
+        <v>87.99999767541894</v>
       </c>
       <c r="C118" t="n">
-        <v>143.9999957084657</v>
+        <v>119.0000044591724</v>
       </c>
       <c r="D118" t="n">
-        <v>5.922599796485816</v>
+        <v>7.26929996533203</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>-2.499999804422263</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G118" t="n">
-        <v>2.500000260770317</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H118" t="n">
-        <v>24.28071424406155</v>
+        <v>22.81583577979978</v>
       </c>
       <c r="I118" t="n">
-        <v>39.03618987231352</v>
+        <v>32.6389668187575</v>
       </c>
       <c r="J118" t="n">
-        <v>151.5729563132563</v>
+        <v>126.3499255946625</v>
       </c>
       <c r="K118" t="n">
-        <v>3.93305440637172</v>
+        <v>3.922705467238137</v>
       </c>
       <c r="L118" t="n">
-        <v>75.33690130845358</v>
+        <v>70.96730750320833</v>
       </c>
       <c r="M118" t="n">
-        <v>-1.391442656517029</v>
+        <v>-1.26189923286438</v>
       </c>
       <c r="N118" t="n">
-        <v>-1.409626841545105</v>
+        <v>-1.648997664451599</v>
       </c>
       <c r="O118" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>247.0000029783696</v>
+        <v>205.0000029504298</v>
       </c>
       <c r="B119" t="n">
-        <v>101.0000027716161</v>
+        <v>86.00000251829614</v>
       </c>
       <c r="C119" t="n">
-        <v>145.9999994635582</v>
+        <v>119.0000044591724</v>
       </c>
       <c r="D119" t="n">
-        <v>9.025300322145512</v>
+        <v>6.386300060055003</v>
       </c>
       <c r="E119" t="n">
-        <v>3.000000096857544</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.4999999608844526</v>
+        <v>-2.499999962747097</v>
       </c>
       <c r="G119" t="n">
-        <v>3.499999888241293</v>
+        <v>-1.499999955296518</v>
       </c>
       <c r="H119" t="n">
-        <v>25.17349487433835</v>
+        <v>22.51860834047519</v>
       </c>
       <c r="I119" t="n">
-        <v>33.61944576691413</v>
+        <v>34.03092979559212</v>
       </c>
       <c r="J119" t="n">
-        <v>130.7431809924708</v>
+        <v>131.6545064803376</v>
       </c>
       <c r="K119" t="n">
-        <v>3.935222594941981</v>
+        <v>3.921951358643303</v>
       </c>
       <c r="L119" t="n">
-        <v>78.0967639683692</v>
+        <v>70.03949309752068</v>
       </c>
       <c r="M119" t="n">
-        <v>-1.786303400993347</v>
+        <v>-1.270289897918701</v>
       </c>
       <c r="N119" t="n">
-        <v>-2.028262615203857</v>
+        <v>-1.739612460136414</v>
       </c>
       <c r="O119" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>255.0000023972243</v>
+        <v>214.9999931156637</v>
       </c>
       <c r="B120" t="n">
-        <v>102.000001847744</v>
+        <v>91.00000280886879</v>
       </c>
       <c r="C120" t="n">
-        <v>152.9999954402448</v>
+        <v>123.9999953061343</v>
       </c>
       <c r="D120" t="n">
-        <v>8.228299751446164</v>
+        <v>8.235300158605167</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4999999608844526</v>
+        <v>-4.500000409781927</v>
       </c>
       <c r="G120" t="n">
-        <v>2.500000260770317</v>
+        <v>-4.499999865889553</v>
       </c>
       <c r="H120" t="n">
-        <v>25.43256090467572</v>
+        <v>23.34857816232381</v>
       </c>
       <c r="I120" t="n">
-        <v>35.55863473247425</v>
+        <v>31.71039768966403</v>
       </c>
       <c r="J120" t="n">
-        <v>138.3476240718553</v>
+        <v>122.8944554792299</v>
       </c>
       <c r="K120" t="n">
-        <v>3.937254939924735</v>
+        <v>3.925581505136335</v>
       </c>
       <c r="L120" t="n">
-        <v>78.84945034008804</v>
+        <v>72.58870395041203</v>
       </c>
       <c r="M120" t="n">
-        <v>-2.579714059829712</v>
+        <v>-1.66260826587677</v>
       </c>
       <c r="N120" t="n">
-        <v>-2.219449281692505</v>
+        <v>-1.680029034614563</v>
       </c>
       <c r="O120" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>256.9999976027757</v>
+        <v>150.9999975301325</v>
       </c>
       <c r="B121" t="n">
-        <v>103.000000923872</v>
+        <v>66.99999893456702</v>
       </c>
       <c r="C121" t="n">
-        <v>154.0000030398368</v>
+        <v>83.9999984353781</v>
       </c>
       <c r="D121" t="n">
-        <v>9.075299907112115</v>
+        <v>4.736299852748832</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.4999999608844526</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G121" t="n">
-        <v>-3.499999888241293</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H121" t="n">
-        <v>25.59022781557537</v>
+        <v>18.88862084679541</v>
       </c>
       <c r="I121" t="n">
-        <v>34.1906004497722</v>
+        <v>30.78613767008145</v>
       </c>
       <c r="J121" t="n">
-        <v>133.0590956813104</v>
+        <v>117.8756057951682</v>
       </c>
       <c r="K121" t="n">
-        <v>3.937743039987434</v>
+        <v>3.894039661991212</v>
       </c>
       <c r="L121" t="n">
-        <v>79.33145213208795</v>
+        <v>58.95126947207513</v>
       </c>
       <c r="M121" t="n">
-        <v>-2.357077360153198</v>
+        <v>-1.187398672103882</v>
       </c>
       <c r="N121" t="n">
-        <v>-2.353413581848145</v>
+        <v>-1.277979493141174</v>
       </c>
       <c r="O121" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>258.9999928083272</v>
+        <v>152.9999994300306</v>
       </c>
       <c r="B122" t="n">
-        <v>104</v>
+        <v>66.99999893456702</v>
       </c>
       <c r="C122" t="n">
-        <v>154.9999991953373</v>
+        <v>86.00000078231095</v>
       </c>
       <c r="D122" t="n">
-        <v>9.025300322145512</v>
+        <v>4.121300262577186</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>3.500000352039927</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G122" t="n">
-        <v>3.499999888241293</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H122" t="n">
-        <v>25.74739395932497</v>
+        <v>18.93008807144113</v>
       </c>
       <c r="I122" t="n">
-        <v>34.61804242298123</v>
+        <v>33.0033215005563</v>
       </c>
       <c r="J122" t="n">
-        <v>134.7564433415315</v>
+        <v>126.3873564310928</v>
       </c>
       <c r="K122" t="n">
-        <v>3.938223957515621</v>
+        <v>3.895424969160485</v>
       </c>
       <c r="L122" t="n">
-        <v>79.81177914897884</v>
+        <v>59.06398728713372</v>
       </c>
       <c r="M122" t="n">
-        <v>-2.356937408447266</v>
+        <v>-1.329473376274109</v>
       </c>
       <c r="N122" t="n">
-        <v>-2.358022212982178</v>
+        <v>-1.236557722091675</v>
       </c>
       <c r="O122" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>256.9999976027757</v>
+        <v>164.9999946169555</v>
       </c>
       <c r="B123" t="n">
-        <v>99.99999630451191</v>
+        <v>74.99999815970666</v>
       </c>
       <c r="C123" t="n">
-        <v>157.0000029504298</v>
+        <v>89.9999954625965</v>
       </c>
       <c r="D123" t="n">
-        <v>6.863299711079902</v>
+        <v>5.694299941412087</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>4.500000273808832</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G123" t="n">
-        <v>3.499999888241293</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H123" t="n">
-        <v>25.21479944439137</v>
+        <v>20.28202488950209</v>
       </c>
       <c r="I123" t="n">
-        <v>38.17099785351223</v>
+        <v>31.42976284979126</v>
       </c>
       <c r="J123" t="n">
-        <v>148.4612965197126</v>
+        <v>120.874209905235</v>
       </c>
       <c r="K123" t="n">
-        <v>3.937743039987434</v>
+        <v>3.90303029525065</v>
       </c>
       <c r="L123" t="n">
-        <v>78.14437759737265</v>
+        <v>63.28175912637535</v>
       </c>
       <c r="M123" t="n">
-        <v>-2.132630348205566</v>
+        <v>-1.378766179084778</v>
       </c>
       <c r="N123" t="n">
-        <v>-2.341121196746826</v>
+        <v>-1.399300336837769</v>
       </c>
       <c r="O123" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>258.9999928083272</v>
+        <v>171.0000003166497</v>
       </c>
       <c r="B124" t="n">
-        <v>102.000001847744</v>
+        <v>79.99999845027929</v>
       </c>
       <c r="C124" t="n">
-        <v>157.0000029504298</v>
+        <v>91.00000164285299</v>
       </c>
       <c r="D124" t="n">
-        <v>7.854300308841701</v>
+        <v>7.665300040600116</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
       </c>
       <c r="F124" t="n">
-        <v>4.500000273808832</v>
+        <v>-1.499999739229683</v>
       </c>
       <c r="G124" t="n">
-        <v>3.499999888241293</v>
+        <v>-3.500000134110447</v>
       </c>
       <c r="H124" t="n">
-        <v>25.49862230642045</v>
+        <v>21.0722540439388</v>
       </c>
       <c r="I124" t="n">
-        <v>36.39539379454793</v>
+        <v>28.89517981188476</v>
       </c>
       <c r="J124" t="n">
-        <v>141.6206082902425</v>
+        <v>111.3653755112423</v>
       </c>
       <c r="K124" t="n">
-        <v>3.938223957515621</v>
+        <v>3.906432975239817</v>
       </c>
       <c r="L124" t="n">
-        <v>79.025445711722</v>
+        <v>65.75164821871408</v>
       </c>
       <c r="M124" t="n">
-        <v>-2.10683274269104</v>
+        <v>-0.7427144050598145</v>
       </c>
       <c r="N124" t="n">
-        <v>-2.396175384521484</v>
+        <v>-1.438830614089966</v>
       </c>
       <c r="O124" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>266.9999922271819</v>
+        <v>168.9999984167516</v>
       </c>
       <c r="B125" t="n">
-        <v>110.000001847744</v>
+        <v>76.99999951571228</v>
       </c>
       <c r="C125" t="n">
-        <v>157.0000029504298</v>
+        <v>91.99999780952935</v>
       </c>
       <c r="D125" t="n">
-        <v>11.77530023686468</v>
+        <v>6.141299886236752</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1.499999882653358</v>
+        <v>0.4999995157122684</v>
       </c>
       <c r="G125" t="n">
-        <v>1.500000037252903</v>
+        <v>0.4999998658895533</v>
       </c>
       <c r="H125" t="n">
-        <v>26.61428916328832</v>
+        <v>20.63287664717706</v>
       </c>
       <c r="I125" t="n">
-        <v>32.05580466224274</v>
+        <v>31.07138313150086</v>
       </c>
       <c r="J125" t="n">
-        <v>124.9453218075347</v>
+        <v>119.6161200816134</v>
       </c>
       <c r="K125" t="n">
-        <v>3.940074865430922</v>
+        <v>3.905325448344294</v>
       </c>
       <c r="L125" t="n">
-        <v>82.48423522017478</v>
+        <v>64.36529299527666</v>
       </c>
       <c r="M125" t="n">
-        <v>-2.098353147506714</v>
+        <v>-0.945667564868927</v>
       </c>
       <c r="N125" t="n">
-        <v>-2.183814287185669</v>
+        <v>-1.409310579299927</v>
       </c>
       <c r="O125" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>277.000005448237</v>
+        <v>168.9999984167516</v>
       </c>
       <c r="B126" t="n">
-        <v>112</v>
+        <v>76.99999951571228</v>
       </c>
       <c r="C126" t="n">
-        <v>164.9999950826169</v>
+        <v>91.99999780952935</v>
       </c>
       <c r="D126" t="n">
-        <v>11.41530049611841</v>
+        <v>6.26630040450218</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1.499999882653358</v>
+        <v>-5.500000037252902</v>
       </c>
       <c r="G126" t="n">
-        <v>1.500000037252903</v>
+        <v>-5.499999955296517</v>
       </c>
       <c r="H126" t="n">
-        <v>27.02022446856359</v>
+        <v>20.63287664717706</v>
       </c>
       <c r="I126" t="n">
-        <v>33.14929861612574</v>
+        <v>30.75991366077226</v>
       </c>
       <c r="J126" t="n">
-        <v>129.2856936661595</v>
+        <v>118.4170588242953</v>
       </c>
       <c r="K126" t="n">
-        <v>3.942238369739545</v>
+        <v>3.905325448344294</v>
       </c>
       <c r="L126" t="n">
-        <v>83.68392740446683</v>
+        <v>64.36529299527666</v>
       </c>
       <c r="M126" t="n">
-        <v>-2.82842230796814</v>
+        <v>-1.174138307571411</v>
       </c>
       <c r="N126" t="n">
-        <v>-2.367992401123047</v>
+        <v>-1.159489393234253</v>
       </c>
       <c r="O126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>173.0000022165477</v>
+      </c>
+      <c r="B127" t="n">
+        <v>77.99999709427368</v>
+      </c>
+      <c r="C127" t="n">
+        <v>94.99999632313855</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.358300331785554</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-2.499999962747097</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2.500000044703482</v>
+      </c>
+      <c r="H127" t="n">
+        <v>20.84754660899411</v>
+      </c>
+      <c r="I127" t="n">
+        <v>30.93314488831099</v>
+      </c>
+      <c r="J127" t="n">
+        <v>119.1580482111661</v>
+      </c>
+      <c r="K127" t="n">
+        <v>3.907514315824875</v>
+      </c>
+      <c r="L127" t="n">
+        <v>65.01228551162139</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-1.280779957771301</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-1.243378877639771</v>
+      </c>
+      <c r="O127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>175.0000041164458</v>
+      </c>
+      <c r="B128" t="n">
+        <v>79.0000008717179</v>
+      </c>
+      <c r="C128" t="n">
+        <v>96.00000250339504</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.585299951298996</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-5.500000037252902</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-5.499999955296517</v>
+      </c>
+      <c r="H128" t="n">
+        <v>21.0209930411154</v>
+      </c>
+      <c r="I128" t="n">
+        <v>30.78501202514799</v>
+      </c>
+      <c r="J128" t="n">
+        <v>118.642957549551</v>
+      </c>
+      <c r="K128" t="n">
+        <v>3.908571523927741</v>
+      </c>
+      <c r="L128" t="n">
+        <v>65.54727107767935</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-1.329360604286194</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-1.130630850791931</v>
+      </c>
+      <c r="O128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>177.0000060163438</v>
+      </c>
+      <c r="B129" t="n">
+        <v>79.0000008717179</v>
+      </c>
+      <c r="C129" t="n">
+        <v>98.00000485032788</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.261300179654717</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-5.500000037252902</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-5.499999955296517</v>
+      </c>
+      <c r="H129" t="n">
+        <v>21.06084176345195</v>
+      </c>
+      <c r="I129" t="n">
+        <v>31.57147099399253</v>
+      </c>
+      <c r="J129" t="n">
+        <v>121.6899923384982</v>
+      </c>
+      <c r="K129" t="n">
+        <v>3.909604599548414</v>
+      </c>
+      <c r="L129" t="n">
+        <v>65.65484392097348</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-1.104830026626587</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-1.067246079444885</v>
+      </c>
+      <c r="O129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>193.0000050030648</v>
+      </c>
+      <c r="B130" t="n">
+        <v>82.99999738484631</v>
+      </c>
+      <c r="C130" t="n">
+        <v>109.9999989047647</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.611299972348546</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.4999995157122684</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.4999998658895533</v>
+      </c>
+      <c r="H130" t="n">
+        <v>21.90106516677406</v>
+      </c>
+      <c r="I130" t="n">
+        <v>32.28008206780723</v>
+      </c>
+      <c r="J130" t="n">
+        <v>124.6963708470168</v>
+      </c>
+      <c r="K130" t="n">
+        <v>3.91709850545484</v>
+      </c>
+      <c r="L130" t="n">
+        <v>68.18344622050664</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-1.357383608818054</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-1.619726181030273</v>
+      </c>
+      <c r="O130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>200.9999963901937</v>
+      </c>
+      <c r="B131" t="n">
+        <v>87.99999767541894</v>
+      </c>
+      <c r="C131" t="n">
+        <v>112.9999974183739</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8.066300340715665</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6.500000856816756</v>
+      </c>
+      <c r="G131" t="n">
+        <v>6.499999687075624</v>
+      </c>
+      <c r="H131" t="n">
+        <v>22.70426073175587</v>
+      </c>
+      <c r="I131" t="n">
+        <v>30.98457027860811</v>
+      </c>
+      <c r="J131" t="n">
+        <v>119.9102531236723</v>
+      </c>
+      <c r="K131" t="n">
+        <v>3.920397980573352</v>
+      </c>
+      <c r="L131" t="n">
+        <v>70.66796786592106</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-1.672994494438171</v>
+      </c>
+      <c r="N131" t="n">
+        <v>-1.443465113639832</v>
+      </c>
+      <c r="O131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>202.9999982900918</v>
+      </c>
+      <c r="B132" t="n">
+        <v>87.99999767541894</v>
+      </c>
+      <c r="C132" t="n">
+        <v>114.9999997653067</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7.763299727408332</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.500000856816756</v>
+      </c>
+      <c r="G132" t="n">
+        <v>6.499999687075624</v>
+      </c>
+      <c r="H132" t="n">
+        <v>22.7417575679244</v>
+      </c>
+      <c r="I132" t="n">
+        <v>31.58344353441202</v>
+      </c>
+      <c r="J132" t="n">
+        <v>122.240121713943</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3.92118202951608</v>
+      </c>
+      <c r="L132" t="n">
+        <v>70.76860801812353</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-1.377448797225952</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-1.513765215873718</v>
+      </c>
+      <c r="O132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>202.9999982900918</v>
+      </c>
+      <c r="B133" t="n">
+        <v>87.00000009685755</v>
+      </c>
+      <c r="C133" t="n">
+        <v>115.9999959319831</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7.274300190179492</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H133" t="n">
+        <v>22.61217392778712</v>
+      </c>
+      <c r="I133" t="n">
+        <v>32.25697619546774</v>
+      </c>
+      <c r="J133" t="n">
+        <v>124.8135750506637</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3.92118202951608</v>
+      </c>
+      <c r="L133" t="n">
+        <v>70.35596157547165</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-1.46673858165741</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-1.455926299095154</v>
+      </c>
+      <c r="O133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>200.9999963901937</v>
+      </c>
+      <c r="B134" t="n">
+        <v>84.00000116229053</v>
+      </c>
+      <c r="C134" t="n">
+        <v>117.0000021122396</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.799300198152807</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-1.499999739229683</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1.499999955296518</v>
+      </c>
+      <c r="H134" t="n">
+        <v>22.18225235488566</v>
+      </c>
+      <c r="I134" t="n">
+        <v>34.88120629940302</v>
+      </c>
+      <c r="J134" t="n">
+        <v>134.8407451578321</v>
+      </c>
+      <c r="K134" t="n">
+        <v>3.920397980573352</v>
+      </c>
+      <c r="L134" t="n">
+        <v>69.00495955746908</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-1.862540364265442</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-1.620462536811829</v>
+      </c>
+      <c r="O134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>205.0000001899898</v>
+      </c>
+      <c r="B135" t="n">
+        <v>84.99999874085192</v>
+      </c>
+      <c r="C135" t="n">
+        <v>120.0000006258488</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.019299885598887</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H135" t="n">
+        <v>22.38730326320614</v>
+      </c>
+      <c r="I135" t="n">
+        <v>34.64542891264867</v>
+      </c>
+      <c r="J135" t="n">
+        <v>133.9942670857885</v>
+      </c>
+      <c r="K135" t="n">
+        <v>3.921951188203837</v>
+      </c>
+      <c r="L135" t="n">
+        <v>69.62133562076949</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-1.853257536888123</v>
+      </c>
+      <c r="N135" t="n">
+        <v>-1.647781372070312</v>
+      </c>
+      <c r="O135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>209.0000039897859</v>
+      </c>
+      <c r="B136" t="n">
+        <v>84.99999874085192</v>
+      </c>
+      <c r="C136" t="n">
+        <v>123.9999953061343</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5.75729996788349</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H136" t="n">
+        <v>22.45952203172618</v>
+      </c>
+      <c r="I136" t="n">
+        <v>35.42496818027279</v>
+      </c>
+      <c r="J136" t="n">
+        <v>137.0352921568908</v>
+      </c>
+      <c r="K136" t="n">
+        <v>3.923445091542977</v>
+      </c>
+      <c r="L136" t="n">
+        <v>69.81488791013015</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-2.011590480804443</v>
+      </c>
+      <c r="N136" t="n">
+        <v>-1.841852068901062</v>
+      </c>
+      <c r="O136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>211.0000058896839</v>
+      </c>
+      <c r="B137" t="n">
+        <v>84.99999874085192</v>
+      </c>
+      <c r="C137" t="n">
+        <v>125.9999976530672</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5.982600314658875</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H137" t="n">
+        <v>22.49520035180585</v>
+      </c>
+      <c r="I137" t="n">
+        <v>34.7515284854281</v>
+      </c>
+      <c r="J137" t="n">
+        <v>134.4426430166786</v>
+      </c>
+      <c r="K137" t="n">
+        <v>3.924170606379961</v>
+      </c>
+      <c r="L137" t="n">
+        <v>69.91044643495378</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-2.302282571792603</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-1.877336502075195</v>
+      </c>
+      <c r="O137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>162.9999927170575</v>
+      </c>
+      <c r="B138" t="n">
+        <v>74.99999815970666</v>
+      </c>
+      <c r="C138" t="n">
+        <v>88.00000312924379</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.012300169117283</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.5000003539025757</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.4999998658895533</v>
+      </c>
+      <c r="H138" t="n">
+        <v>20.24084044295868</v>
+      </c>
+      <c r="I138" t="n">
+        <v>30.58728638838155</v>
+      </c>
+      <c r="J138" t="n">
+        <v>117.6162426758127</v>
+      </c>
+      <c r="K138" t="n">
+        <v>3.901840358495725</v>
+      </c>
+      <c r="L138" t="n">
+        <v>63.17019558678786</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-1.489987730979919</v>
+      </c>
+      <c r="N138" t="n">
+        <v>-1.271570444107056</v>
+      </c>
+      <c r="O138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>162.9999927170575</v>
+      </c>
+      <c r="B139" t="n">
+        <v>74.99999815970666</v>
+      </c>
+      <c r="C139" t="n">
+        <v>88.00000312924379</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.068300053664647</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-5.499999929219485</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-5.499999955296517</v>
+      </c>
+      <c r="H139" t="n">
+        <v>20.24084044295868</v>
+      </c>
+      <c r="I139" t="n">
+        <v>30.44582426378564</v>
+      </c>
+      <c r="J139" t="n">
+        <v>117.0722801578403</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3.901840358495725</v>
+      </c>
+      <c r="L139" t="n">
+        <v>63.17019558678786</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-1.143120050430298</v>
+      </c>
+      <c r="N139" t="n">
+        <v>-1.245561718940735</v>
+      </c>
+      <c r="O139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>162.9999927170575</v>
+      </c>
+      <c r="B140" t="n">
+        <v>74.00000058114526</v>
+      </c>
+      <c r="C140" t="n">
+        <v>88.99999929592015</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5.518299763545265</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-3.500000212341545</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3.500000134110447</v>
+      </c>
+      <c r="H140" t="n">
+        <v>20.10544950618365</v>
+      </c>
+      <c r="I140" t="n">
+        <v>31.50134325123937</v>
+      </c>
+      <c r="J140" t="n">
+        <v>121.0861856338607</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3.901840358495725</v>
+      </c>
+      <c r="L140" t="n">
+        <v>62.73603316782413</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-1.02848756313324</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-1.1796954870224</v>
+      </c>
+      <c r="O140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>164.9999946169555</v>
+      </c>
+      <c r="B141" t="n">
+        <v>76.00000193715088</v>
+      </c>
+      <c r="C141" t="n">
+        <v>88.99999929592015</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.335299747625894</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-3.500000212341545</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-3.500000134110447</v>
+      </c>
+      <c r="H141" t="n">
+        <v>20.41679049583948</v>
+      </c>
+      <c r="I141" t="n">
+        <v>30.194650522061</v>
+      </c>
+      <c r="J141" t="n">
+        <v>116.1660210585931</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3.90303029525065</v>
+      </c>
+      <c r="L141" t="n">
+        <v>63.7137185683729</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-1.180809259414673</v>
+      </c>
+      <c r="N141" t="n">
+        <v>-1.270560145378113</v>
+      </c>
+      <c r="O141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>182.9999955035746</v>
+      </c>
+      <c r="B142" t="n">
+        <v>81.99999980628492</v>
+      </c>
+      <c r="C142" t="n">
+        <v>101.0000033639371</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7.022300063484072</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7.500000778585666</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-3.500000134110447</v>
+      </c>
+      <c r="H142" t="n">
+        <v>21.5765554537845</v>
+      </c>
+      <c r="I142" t="n">
+        <v>30.94383570003936</v>
+      </c>
+      <c r="J142" t="n">
+        <v>119.4294065403606</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3.912568273744501</v>
+      </c>
+      <c r="L142" t="n">
+        <v>67.24407713498623</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-1.548130035400391</v>
+      </c>
+      <c r="N142" t="n">
+        <v>-1.399250745773315</v>
+      </c>
+      <c r="O142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>182.9999955035746</v>
+      </c>
+      <c r="B143" t="n">
+        <v>81.00000222772351</v>
+      </c>
+      <c r="C143" t="n">
+        <v>101.9999995306134</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.605300019891775</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-4.499999787658455</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.999999821186071</v>
+      </c>
+      <c r="H143" t="n">
+        <v>21.44458774135373</v>
+      </c>
+      <c r="I143" t="n">
+        <v>31.51655621055797</v>
+      </c>
+      <c r="J143" t="n">
+        <v>121.6022954541422</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3.912568273744501</v>
+      </c>
+      <c r="L143" t="n">
+        <v>66.82247801916827</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-1.3679438829422</v>
+      </c>
+      <c r="N143" t="n">
+        <v>-1.406822443008423</v>
+      </c>
+      <c r="O143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>184.9999974034727</v>
+      </c>
+      <c r="B144" t="n">
+        <v>81.99999980628492</v>
+      </c>
+      <c r="C144" t="n">
+        <v>102.9999956972898</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.555300101720318</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.500000070780515</v>
+      </c>
+      <c r="G144" t="n">
+        <v>6.499999687075624</v>
+      </c>
+      <c r="H144" t="n">
+        <v>21.61567768928908</v>
+      </c>
+      <c r="I144" t="n">
+        <v>32.02709463433618</v>
+      </c>
+      <c r="J144" t="n">
+        <v>123.6252339930654</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3.913513548206559</v>
+      </c>
+      <c r="L144" t="n">
+        <v>67.34948219263951</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-1.728483557701111</v>
+      </c>
+      <c r="N144" t="n">
+        <v>-1.283193826675415</v>
+      </c>
+      <c r="O144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>186.9999993033707</v>
+      </c>
+      <c r="B145" t="n">
+        <v>82.99999738484631</v>
+      </c>
+      <c r="C145" t="n">
+        <v>104.0000018775463</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7.887299778571961</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.5000003539025757</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.4999998658895533</v>
+      </c>
+      <c r="H145" t="n">
+        <v>21.78609172858964</v>
+      </c>
+      <c r="I145" t="n">
+        <v>29.55383822079134</v>
+      </c>
+      <c r="J145" t="n">
+        <v>114.1262618057568</v>
+      </c>
+      <c r="K145" t="n">
+        <v>3.914438541114433</v>
+      </c>
+      <c r="L145" t="n">
+        <v>67.87414966210829</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-1.58396053314209</v>
+      </c>
+      <c r="N145" t="n">
+        <v>-1.423470854759216</v>
+      </c>
+      <c r="O145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>193.0000050030648</v>
+      </c>
+      <c r="B146" t="n">
+        <v>84.99999874085192</v>
+      </c>
+      <c r="C146" t="n">
+        <v>107.9999965578318</v>
+      </c>
+      <c r="D146" t="n">
+        <v>7.389299593788231</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.5000003539025757</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.4999998658895533</v>
+      </c>
+      <c r="H146" t="n">
+        <v>22.16336369725472</v>
+      </c>
+      <c r="I146" t="n">
+        <v>31.2692345316487</v>
+      </c>
+      <c r="J146" t="n">
+        <v>120.8616942263331</v>
+      </c>
+      <c r="K146" t="n">
+        <v>3.91709850545484</v>
+      </c>
+      <c r="L146" t="n">
+        <v>69.02008478909949</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-1.225281953811646</v>
+      </c>
+      <c r="N146" t="n">
+        <v>-1.403861403465271</v>
+      </c>
+      <c r="O146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>196.9999925903976</v>
+      </c>
+      <c r="B147" t="n">
+        <v>84.99999874085192</v>
+      </c>
+      <c r="C147" t="n">
+        <v>112.0000012516975</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.84430006913768</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.5000003539025757</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.4999998658895533</v>
+      </c>
+      <c r="H147" t="n">
+        <v>22.23927007614964</v>
+      </c>
+      <c r="I147" t="n">
+        <v>32.49035259571119</v>
+      </c>
+      <c r="J147" t="n">
+        <v>125.6085197305597</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3.918781874452045</v>
+      </c>
+      <c r="L147" t="n">
+        <v>69.2240748255555</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-1.171604990959167</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-1.488422989845276</v>
+      </c>
+      <c r="O147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>198.9999944902957</v>
+      </c>
+      <c r="B148" t="n">
+        <v>87.00000009685755</v>
+      </c>
+      <c r="C148" t="n">
+        <v>112.0000012516975</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7.816299978084828</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.5000003539025757</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.4999998658895533</v>
+      </c>
+      <c r="H148" t="n">
+        <v>22.53729520589816</v>
+      </c>
+      <c r="I148" t="n">
+        <v>31.11850028524299</v>
+      </c>
+      <c r="J148" t="n">
+        <v>120.3840905936266</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3.919598014461518</v>
+      </c>
+      <c r="L148" t="n">
+        <v>70.15496983993445</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-1.270264506340027</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-1.424534559249878</v>
+      </c>
+      <c r="O148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>198.9999944902957</v>
+      </c>
+      <c r="B149" t="n">
+        <v>84.00000116229053</v>
+      </c>
+      <c r="C149" t="n">
+        <v>114.9999997653067</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.183299805947328</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6.500000070780515</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6.499999687075624</v>
+      </c>
+      <c r="H149" t="n">
+        <v>22.14531417789487</v>
+      </c>
+      <c r="I149" t="n">
+        <v>33.78073986281802</v>
+      </c>
+      <c r="J149" t="n">
+        <v>130.573313188738</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3.919598014461518</v>
+      </c>
+      <c r="L149" t="n">
+        <v>68.90581855572601</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-1.65778648853302</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-1.581485986709595</v>
+      </c>
+      <c r="O149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>209.0000039897859</v>
+      </c>
+      <c r="B150" t="n">
+        <v>89.99999903142457</v>
+      </c>
+      <c r="C150" t="n">
+        <v>119.0000044591724</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8.275299786308478</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6.500000070780515</v>
+      </c>
+      <c r="G150" t="n">
+        <v>6.499999687075624</v>
+      </c>
+      <c r="H150" t="n">
+        <v>23.11065654595026</v>
+      </c>
+      <c r="I150" t="n">
+        <v>31.2860437903265</v>
+      </c>
+      <c r="J150" t="n">
+        <v>121.1865867051933</v>
+      </c>
+      <c r="K150" t="n">
+        <v>3.923445091542977</v>
+      </c>
+      <c r="L150" t="n">
+        <v>71.8869953756399</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-1.396686911582947</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-1.541053295135498</v>
+      </c>
+      <c r="O150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>202.9999982900918</v>
+      </c>
+      <c r="B151" t="n">
+        <v>84.00000116229053</v>
+      </c>
+      <c r="C151" t="n">
+        <v>119.0000044591724</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.138300058128022</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6.500000070780515</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1.499999955296518</v>
+      </c>
+      <c r="H151" t="n">
+        <v>22.21888706269347</v>
+      </c>
+      <c r="I151" t="n">
+        <v>33.90433418979936</v>
+      </c>
+      <c r="J151" t="n">
+        <v>131.0775449800682</v>
+      </c>
+      <c r="K151" t="n">
+        <v>3.92118202951608</v>
+      </c>
+      <c r="L151" t="n">
+        <v>69.10323485260884</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-2.134370088577271</v>
+      </c>
+      <c r="N151" t="n">
+        <v>-1.763655185699463</v>
+      </c>
+      <c r="O151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>207.0000020898879</v>
+      </c>
+      <c r="B152" t="n">
+        <v>87.00000009685755</v>
+      </c>
+      <c r="C152" t="n">
+        <v>120.0000006258488</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.894299987309137</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-4.499999787658455</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H152" t="n">
+        <v>22.68583187591731</v>
+      </c>
+      <c r="I152" t="n">
+        <v>33.13402068785572</v>
+      </c>
+      <c r="J152" t="n">
+        <v>128.2320724175706</v>
+      </c>
+      <c r="K152" t="n">
+        <v>3.922705456636625</v>
+      </c>
+      <c r="L152" t="n">
+        <v>70.55350456112568</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-1.559600591659546</v>
+      </c>
+      <c r="N152" t="n">
+        <v>-1.677182555198669</v>
+      </c>
+      <c r="O152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>209.0000039897859</v>
+      </c>
+      <c r="B153" t="n">
+        <v>87.99999767541894</v>
+      </c>
+      <c r="C153" t="n">
+        <v>120.9999967925251</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7.143299782142661</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-2.499999504536394</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2.500000044703482</v>
+      </c>
+      <c r="H153" t="n">
+        <v>22.85242956034112</v>
+      </c>
+      <c r="I153" t="n">
+        <v>32.92556493589772</v>
+      </c>
+      <c r="J153" t="n">
+        <v>127.4713998812336</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3.923445091542977</v>
+      </c>
+      <c r="L153" t="n">
+        <v>71.06539757949665</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-1.58667254447937</v>
+      </c>
+      <c r="N153" t="n">
+        <v>-1.689954400062561</v>
+      </c>
+      <c r="O153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>209.0000039897859</v>
+      </c>
+      <c r="B154" t="n">
+        <v>82.99999738484631</v>
+      </c>
+      <c r="C154" t="n">
+        <v>125.9999976530672</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3.137500072529845</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-4.499999787658455</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.4999998658895533</v>
+      </c>
+      <c r="H154" t="n">
+        <v>22.1937198115876</v>
+      </c>
+      <c r="I154" t="n">
+        <v>46.85826952587751</v>
+      </c>
+      <c r="J154" t="n">
+        <v>181.1577641169004</v>
+      </c>
+      <c r="K154" t="n">
+        <v>3.923445091542977</v>
+      </c>
+      <c r="L154" t="n">
+        <v>68.96861395665968</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-2.516895532608032</v>
+      </c>
+      <c r="N154" t="n">
+        <v>-2.292557239532471</v>
+      </c>
+      <c r="O154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>157.0000032298267</v>
+      </c>
+      <c r="B155" t="n">
+        <v>73.00000300258387</v>
+      </c>
+      <c r="C155" t="n">
+        <v>83.9999984353781</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7.94529987475518</v>
+      </c>
+      <c r="E155" t="n">
+        <v>8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-12.49999981373549</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-5.499999955296517</v>
+      </c>
+      <c r="H155" t="n">
+        <v>19.8447074047702</v>
+      </c>
+      <c r="I155" t="n">
+        <v>25.89808736154198</v>
+      </c>
+      <c r="J155" t="n">
+        <v>99.46242834910376</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3.898089297885969</v>
+      </c>
+      <c r="L155" t="n">
+        <v>61.96135948488698</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-1.984172344207764</v>
+      </c>
+      <c r="N155" t="n">
+        <v>-1.832331299781799</v>
+      </c>
+      <c r="O155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>159.0000051297247</v>
+      </c>
+      <c r="B156" t="n">
+        <v>73.00000300258387</v>
+      </c>
+      <c r="C156" t="n">
+        <v>86.00000078231095</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.745299810968665</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-5.500000037252902</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-5.499999955296517</v>
+      </c>
+      <c r="H156" t="n">
+        <v>19.88662063715453</v>
+      </c>
+      <c r="I156" t="n">
+        <v>30.45555484888672</v>
+      </c>
+      <c r="J156" t="n">
+        <v>116.9847558096403</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3.899371143456054</v>
+      </c>
+      <c r="L156" t="n">
+        <v>62.07511896317558</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-1.200407028198242</v>
+      </c>
+      <c r="N156" t="n">
+        <v>-1.213347911834717</v>
+      </c>
+      <c r="O156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>157.0000032298267</v>
+      </c>
+      <c r="B157" t="n">
+        <v>69.99999786913403</v>
+      </c>
+      <c r="C157" t="n">
+        <v>86.9999969489873</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.622300275653421</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-3.500000186264512</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-3.500000134110447</v>
+      </c>
+      <c r="H157" t="n">
+        <v>19.43266062654748</v>
+      </c>
+      <c r="I157" t="n">
+        <v>32.55884502045807</v>
+      </c>
+      <c r="J157" t="n">
+        <v>124.8923190208596</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3.898089297885969</v>
+      </c>
+      <c r="L157" t="n">
+        <v>60.63818676696194</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-1.127644777297974</v>
+      </c>
+      <c r="N157" t="n">
+        <v>-1.175534963607788</v>
+      </c>
+      <c r="O157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>164.9999946169555</v>
+      </c>
+      <c r="B158" t="n">
+        <v>74.99999815970666</v>
+      </c>
+      <c r="C158" t="n">
+        <v>89.9999954625965</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5.661299988295174</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-5.500000037252902</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-5.499999955296517</v>
+      </c>
+      <c r="H158" t="n">
+        <v>20.28202488950209</v>
+      </c>
+      <c r="I158" t="n">
+        <v>31.52123155103602</v>
+      </c>
+      <c r="J158" t="n">
+        <v>121.2259891804552</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3.90303029525065</v>
+      </c>
+      <c r="L158" t="n">
+        <v>63.28175912637535</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-1.107317328453064</v>
+      </c>
+      <c r="N158" t="n">
+        <v>-1.221668481826782</v>
+      </c>
+      <c r="O158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>166.9999965168536</v>
+      </c>
+      <c r="B159" t="n">
+        <v>76.00000193715088</v>
+      </c>
+      <c r="C159" t="n">
+        <v>91.00000164285299</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5.985299759939454</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-3.500000186264512</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-3.500000134110447</v>
+      </c>
+      <c r="H159" t="n">
+        <v>20.45782780580932</v>
+      </c>
+      <c r="I159" t="n">
+        <v>31.06494836213794</v>
+      </c>
+      <c r="J159" t="n">
+        <v>119.5320330506908</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3.904191735138306</v>
+      </c>
+      <c r="L159" t="n">
+        <v>63.82482462073099</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-1.142573595046997</v>
+      </c>
+      <c r="N159" t="n">
+        <v>-1.264232873916626</v>
+      </c>
+      <c r="O159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>168.9999984167516</v>
+      </c>
+      <c r="B160" t="n">
+        <v>74.99999815970666</v>
+      </c>
+      <c r="C160" t="n">
+        <v>94.00000015646219</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5.164300027523881</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.000000447034829</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H160" t="n">
+        <v>20.36315461675844</v>
+      </c>
+      <c r="I160" t="n">
+        <v>33.00316320673754</v>
+      </c>
+      <c r="J160" t="n">
+        <v>126.9625736825001</v>
+      </c>
+      <c r="K160" t="n">
+        <v>3.905325448344294</v>
+      </c>
+      <c r="L160" t="n">
+        <v>63.50128965210076</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-0.8771231174468994</v>
+      </c>
+      <c r="N160" t="n">
+        <v>-1.367342829704285</v>
+      </c>
+      <c r="O160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>177.0000060163438</v>
+      </c>
+      <c r="B161" t="n">
+        <v>81.00000222772351</v>
+      </c>
+      <c r="C161" t="n">
+        <v>96.00000250339504</v>
+      </c>
+      <c r="D161" t="n">
+        <v>7.660299815752654</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-5.500000037252902</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-5.499999955296517</v>
+      </c>
+      <c r="H161" t="n">
+        <v>21.32577036018501</v>
+      </c>
+      <c r="I161" t="n">
+        <v>29.26591649844022</v>
+      </c>
+      <c r="J161" t="n">
+        <v>112.8757362314127</v>
+      </c>
+      <c r="K161" t="n">
+        <v>3.909604599548414</v>
+      </c>
+      <c r="L161" t="n">
+        <v>66.50203988716781</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-1.465319514274597</v>
+      </c>
+      <c r="N161" t="n">
+        <v>-1.290141940116882</v>
+      </c>
+      <c r="O161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>177.0000060163438</v>
+      </c>
+      <c r="B162" t="n">
+        <v>77.99999709427368</v>
+      </c>
+      <c r="C162" t="n">
+        <v>99.00000101700424</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5.643300071855508</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-2.499999962747097</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2.500000044703482</v>
+      </c>
+      <c r="H162" t="n">
+        <v>20.92712220619222</v>
+      </c>
+      <c r="I162" t="n">
+        <v>32.83431897931894</v>
+      </c>
+      <c r="J162" t="n">
+        <v>126.5154134204726</v>
+      </c>
+      <c r="K162" t="n">
+        <v>3.909604599548414</v>
+      </c>
+      <c r="L162" t="n">
+        <v>65.22712151454667</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-0.9070267677307129</v>
+      </c>
+      <c r="N162" t="n">
+        <v>-1.167499303817749</v>
+      </c>
+      <c r="O162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>177.0000060163438</v>
+      </c>
+      <c r="B163" t="n">
+        <v>76.99999951571228</v>
+      </c>
+      <c r="C163" t="n">
+        <v>99.99999718368059</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.082300231002861</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-2.499999962747097</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2.500000044703482</v>
+      </c>
+      <c r="H163" t="n">
+        <v>20.79254052057178</v>
+      </c>
+      <c r="I163" t="n">
+        <v>34.15549446796081</v>
+      </c>
+      <c r="J163" t="n">
+        <v>131.5611156611038</v>
+      </c>
+      <c r="K163" t="n">
+        <v>3.909604599548414</v>
+      </c>
+      <c r="L163" t="n">
+        <v>64.79657676382772</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-1.018189549446106</v>
+      </c>
+      <c r="N163" t="n">
+        <v>-1.174412488937378</v>
+      </c>
+      <c r="O163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>182.9999955035746</v>
+      </c>
+      <c r="B164" t="n">
+        <v>79.99999845027929</v>
+      </c>
+      <c r="C164" t="n">
+        <v>102.9999956972898</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.038299974581074</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.4999995157122684</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-0.4999998658895533</v>
+      </c>
+      <c r="H164" t="n">
+        <v>21.31180158173254</v>
+      </c>
+      <c r="I164" t="n">
+        <v>32.55612136173514</v>
+      </c>
+      <c r="J164" t="n">
+        <v>125.573564165403</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3.912568273744501</v>
+      </c>
+      <c r="L164" t="n">
+        <v>66.39820436262461</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-1.486671328544617</v>
+      </c>
+      <c r="N164" t="n">
+        <v>-1.257337808609009</v>
+      </c>
+      <c r="O164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>184.9999974034727</v>
+      </c>
+      <c r="B165" t="n">
+        <v>79.99999845027929</v>
+      </c>
+      <c r="C165" t="n">
+        <v>104.9999980442226</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.773300177103256</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.4999995157122684</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-0.4999998658895533</v>
+      </c>
+      <c r="H165" t="n">
+        <v>21.35044562337305</v>
+      </c>
+      <c r="I165" t="n">
+        <v>33.29491379032822</v>
+      </c>
+      <c r="J165" t="n">
+        <v>128.4387192064574</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3.913513548206559</v>
+      </c>
+      <c r="L165" t="n">
+        <v>66.50227918818011</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-1.325241208076477</v>
+      </c>
+      <c r="N165" t="n">
+        <v>-1.308736085891724</v>
+      </c>
+      <c r="O165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>186.9999993033707</v>
+      </c>
+      <c r="B166" t="n">
+        <v>81.99999980628492</v>
+      </c>
+      <c r="C166" t="n">
+        <v>104.9999980442226</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.393299992122365</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-1.499999739229683</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-0.4999998658895533</v>
+      </c>
+      <c r="H166" t="n">
+        <v>21.65445047543146</v>
+      </c>
+      <c r="I166" t="n">
+        <v>32.43032551522047</v>
+      </c>
+      <c r="J166" t="n">
+        <v>125.196491134816</v>
+      </c>
+      <c r="K166" t="n">
+        <v>3.914438541114433</v>
+      </c>
+      <c r="L166" t="n">
+        <v>67.45388077838813</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-2.14324688911438</v>
+      </c>
+      <c r="N166" t="n">
+        <v>-1.641648292541504</v>
+      </c>
+      <c r="O166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>195.0000069029629</v>
+      </c>
+      <c r="B167" t="n">
+        <v>86.00000251829614</v>
+      </c>
+      <c r="C167" t="n">
+        <v>109.0000027380883</v>
+      </c>
+      <c r="D167" t="n">
+        <v>7.714300202936795</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6.500000856816756</v>
+      </c>
+      <c r="G167" t="n">
+        <v>6.499999687075624</v>
+      </c>
+      <c r="H167" t="n">
+        <v>22.33169253542683</v>
+      </c>
+      <c r="I167" t="n">
+        <v>30.96350966291111</v>
+      </c>
+      <c r="J167" t="n">
+        <v>119.7265302649234</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3.91794879035933</v>
+      </c>
+      <c r="L167" t="n">
+        <v>69.53769991697047</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-1.229318618774414</v>
+      </c>
+      <c r="N167" t="n">
+        <v>-1.36791205406189</v>
+      </c>
+      <c r="O167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>195.0000069029629</v>
+      </c>
+      <c r="B168" t="n">
+        <v>82.99999738484631</v>
+      </c>
+      <c r="C168" t="n">
+        <v>112.0000012516975</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5.535299935352368</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H168" t="n">
+        <v>21.93872983059681</v>
+      </c>
+      <c r="I168" t="n">
+        <v>35.27829011268227</v>
+      </c>
+      <c r="J168" t="n">
+        <v>136.2930772973763</v>
+      </c>
+      <c r="K168" t="n">
+        <v>3.91794879035933</v>
+      </c>
+      <c r="L168" t="n">
+        <v>68.28466351044467</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-1.749961495399475</v>
+      </c>
+      <c r="N168" t="n">
+        <v>-1.648273944854736</v>
+      </c>
+      <c r="O168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>207.0000020898879</v>
+      </c>
+      <c r="B169" t="n">
+        <v>89.00000145286316</v>
+      </c>
+      <c r="C169" t="n">
+        <v>117.9999982789159</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7.849299895166864</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H169" t="n">
+        <v>22.94510720961308</v>
+      </c>
+      <c r="I169" t="n">
+        <v>31.76687843176052</v>
+      </c>
+      <c r="J169" t="n">
+        <v>123.0060911351837</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3.922705456636625</v>
+      </c>
+      <c r="L169" t="n">
+        <v>71.37871298724865</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-1.407214403152466</v>
+      </c>
+      <c r="N169" t="n">
+        <v>-1.596192359924316</v>
+      </c>
+      <c r="O169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>211.0000058896839</v>
+      </c>
+      <c r="B170" t="n">
+        <v>87.00000009685755</v>
+      </c>
+      <c r="C170" t="n">
+        <v>123.9999953061343</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.662299841905124</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-4.500000409781927</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-4.499999865889553</v>
+      </c>
+      <c r="H170" t="n">
+        <v>22.75831273145901</v>
+      </c>
+      <c r="I170" t="n">
+        <v>33.70599781246737</v>
+      </c>
+      <c r="J170" t="n">
+        <v>130.4700332493706</v>
+      </c>
+      <c r="K170" t="n">
+        <v>3.924170606379961</v>
+      </c>
+      <c r="L170" t="n">
+        <v>70.74772548566779</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-1.881322860717773</v>
+      </c>
+      <c r="N170" t="n">
+        <v>-1.788429975509644</v>
+      </c>
+      <c r="O170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>214.9999934770167</v>
+      </c>
+      <c r="B171" t="n">
+        <v>89.99999903142457</v>
+      </c>
+      <c r="C171" t="n">
+        <v>125.0000014863908</v>
+      </c>
+      <c r="D171" t="n">
+        <v>7.665300040600116</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.4999995157122684</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2.500000044703482</v>
+      </c>
+      <c r="H171" t="n">
+        <v>23.21993533893606</v>
+      </c>
+      <c r="I171" t="n">
+        <v>32.50707540392013</v>
+      </c>
+      <c r="J171" t="n">
+        <v>125.9505587657407</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3.925581329674096</v>
+      </c>
+      <c r="L171" t="n">
+        <v>72.17975904939432</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-1.866056084632874</v>
+      </c>
+      <c r="N171" t="n">
+        <v>-1.850158929824829</v>
+      </c>
+      <c r="O171" t="n">
         <v>10</v>
       </c>
     </row>
